--- a/Analysis_v1/parameters.xlsx
+++ b/Analysis_v1/parameters.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="7">
   <si>
     <t>V_0</t>
   </si>
@@ -56,7 +56,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="195">
+  <borders count="197">
     <border>
       <left/>
       <right/>
@@ -258,11 +258,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="195">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -458,6 +460,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="192" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="193" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="194" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="195" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="196" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,7 +476,7 @@
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="true"/>
     <col min="2" max="2" width="14.7109375" customWidth="true"/>
-    <col min="3" max="3" width="15.7109375" customWidth="true"/>
+    <col min="3" max="3" width="14.7109375" customWidth="true"/>
     <col min="4" max="4" width="15.7109375" customWidth="true"/>
     <col min="5" max="5" width="5.7109375" customWidth="true"/>
     <col min="6" max="6" width="5.7109375" customWidth="true"/>
@@ -480,34 +484,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="193" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="193" t="s">
+      <c r="A1" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="195" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="193" t="s">
+      <c r="C1" s="195" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="193" t="s">
+      <c r="D1" s="195" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="193" t="s">
+      <c r="E1" s="195" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>2786.1558728359796</v>
+        <v>26914.534492201426</v>
       </c>
       <c r="B2">
-        <v>0.031186849665814052</v>
+        <v>0.019257332912253084</v>
       </c>
       <c r="C2">
-        <v>0.0072315908897232894</v>
+        <v>0.012642021049988478</v>
       </c>
       <c r="D2">
-        <v>0.00028757588972422229</v>
+        <v>0.0002433456583570627</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -515,16 +519,16 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>20500.138846385904</v>
+        <v>14247.626200159903</v>
       </c>
       <c r="B3">
-        <v>0.028412112236462318</v>
+        <v>0.02568478489645289</v>
       </c>
       <c r="C3">
-        <v>0.0085125486029993588</v>
+        <v>0.0088434112349309677</v>
       </c>
       <c r="D3">
-        <v>0.00015351019121947879</v>
+        <v>0.00029351574090012174</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -532,16 +536,16 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>8911.8781816397895</v>
+        <v>27521.569556006772</v>
       </c>
       <c r="B4">
-        <v>0.021152772407349307</v>
+        <v>0.027529498866759362</v>
       </c>
       <c r="C4">
-        <v>0.045314899834887908</v>
+        <v>0.01012761373754836</v>
       </c>
       <c r="D4">
-        <v>0.00036051071051992846</v>
+        <v>0.00033856862855151349</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -549,16 +553,16 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>6043.3950434982944</v>
+        <v>32374.947634590644</v>
       </c>
       <c r="B5">
-        <v>0.01269507305534681</v>
+        <v>0.019261023288173598</v>
       </c>
       <c r="C5">
-        <v>0.028142483735920466</v>
+        <v>0.043867481709353201</v>
       </c>
       <c r="D5">
-        <v>0.00023740190886947457</v>
+        <v>0.00026042159836694415</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -566,16 +570,16 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>9432.9963192173964</v>
+        <v>24363.840696837637</v>
       </c>
       <c r="B6">
-        <v>0.018459066080920201</v>
+        <v>0.02463545377346716</v>
       </c>
       <c r="C6">
-        <v>0.018675929204475378</v>
+        <v>0.029640267569077831</v>
       </c>
       <c r="D6">
-        <v>0.00022463702776689899</v>
+        <v>0.00026170549272461484</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -583,16 +587,16 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>7029.2332513878855</v>
+        <v>31869.997302490028</v>
       </c>
       <c r="B7">
-        <v>0.011286842268237124</v>
+        <v>0.010427867853498543</v>
       </c>
       <c r="C7">
-        <v>0.046207117166946407</v>
+        <v>0.022403319536648932</v>
       </c>
       <c r="D7">
-        <v>0.00033952726910736622</v>
+        <v>0.00016166459214976531</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -600,16 +604,16 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>8773.200992392889</v>
+        <v>10597.090844134062</v>
       </c>
       <c r="B8">
-        <v>0.0069315751071853011</v>
+        <v>0.035397157131860126</v>
       </c>
       <c r="C8">
-        <v>0.0044405404133099399</v>
+        <v>0.0075695828214830223</v>
       </c>
       <c r="D8">
-        <v>6.1549222664148882e-05</v>
+        <v>8.4951759981456422e-05</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -617,16 +621,16 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>2465.6671600685277</v>
+        <v>31592.997896741592</v>
       </c>
       <c r="B9">
-        <v>0.035822827219719959</v>
+        <v>0.012992972695839768</v>
       </c>
       <c r="C9">
-        <v>0.032092551213032131</v>
+        <v>0.0086310024881975488</v>
       </c>
       <c r="D9">
-        <v>0.00011162457549867148</v>
+        <v>0.0002234990864138902</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -634,16 +638,16 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>26661.914618009709</v>
+        <v>55070.719167389536</v>
       </c>
       <c r="B10">
-        <v>0.016092306088404739</v>
+        <v>0.015188455813287739</v>
       </c>
       <c r="C10">
-        <v>0.031534148919651526</v>
+        <v>0.0033838096457109211</v>
       </c>
       <c r="D10">
-        <v>0.00032001756470632117</v>
+        <v>0.00023155445704418088</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -651,16 +655,16 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>12434.865945669322</v>
+        <v>40392.957916211104</v>
       </c>
       <c r="B11">
-        <v>0.015946149451008966</v>
+        <v>0.02882832661752811</v>
       </c>
       <c r="C11">
-        <v>0.022676307129642526</v>
+        <v>0.046428546688294207</v>
       </c>
       <c r="D11">
-        <v>0.00030440122397397754</v>
+        <v>0.0003165505049275971</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -668,16 +672,16 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>22488.87854487979</v>
+        <v>4446.5464631946761</v>
       </c>
       <c r="B12">
-        <v>0.01687949156796047</v>
+        <v>0.020547609215786508</v>
       </c>
       <c r="C12">
-        <v>0.0075603509951784496</v>
+        <v>0.029834045510343882</v>
       </c>
       <c r="D12">
-        <v>0.00028571356314016611</v>
+        <v>0.0004006602053174513</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -685,16 +689,16 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>29521.075935422967</v>
+        <v>15695.163116364032</v>
       </c>
       <c r="B13">
-        <v>0.020066974347583703</v>
+        <v>0.027871177008483052</v>
       </c>
       <c r="C13">
-        <v>0.024289392254605368</v>
+        <v>0.022494558727548655</v>
       </c>
       <c r="D13">
-        <v>0.00033532187482415758</v>
+        <v>0.00039344537542875072</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -702,16 +706,16 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>20882.523714661565</v>
+        <v>15801.490629115633</v>
       </c>
       <c r="B14">
-        <v>0.024446157999760763</v>
+        <v>0.018397900457334145</v>
       </c>
       <c r="C14">
-        <v>0.012005881212126927</v>
+        <v>0.012526159287447866</v>
       </c>
       <c r="D14">
-        <v>0.00032970462593459013</v>
+        <v>0.00026891514646005307</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -719,16 +723,16 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>22373.653705148783</v>
+        <v>29018.225184906874</v>
       </c>
       <c r="B15">
-        <v>0.0066139690221320956</v>
+        <v>0.015365243112054821</v>
       </c>
       <c r="C15">
-        <v>0.0056205949894808909</v>
+        <v>0.0068659454264784203</v>
       </c>
       <c r="D15">
-        <v>0.00034858639174010781</v>
+        <v>0.00020777893210703721</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -736,16 +740,16 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>18745.950579837976</v>
+        <v>25002.055488089645</v>
       </c>
       <c r="B16">
-        <v>0.030482937116930151</v>
+        <v>0.0072725512286469056</v>
       </c>
       <c r="C16">
-        <v>0.0086529174951325595</v>
+        <v>0.025487408742477867</v>
       </c>
       <c r="D16">
-        <v>0.00022283220078664893</v>
+        <v>0.00034403742774468581</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -753,16 +757,16 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>6079.4636431536255</v>
+        <v>34756.263268711147</v>
       </c>
       <c r="B17">
-        <v>0.022236684374927519</v>
+        <v>0.025104194021016196</v>
       </c>
       <c r="C17">
-        <v>0.044097313272978833</v>
+        <v>0.06562709256193644</v>
       </c>
       <c r="D17">
-        <v>0.0003260593823234224</v>
+        <v>0.00034285911633455651</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -770,16 +774,16 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>20531.598013568135</v>
+        <v>15741.980784157417</v>
       </c>
       <c r="B18">
-        <v>0.030977681251584205</v>
+        <v>0.019188810085505062</v>
       </c>
       <c r="C18">
-        <v>0.0031484810296385094</v>
+        <v>0.0070293745857168966</v>
       </c>
       <c r="D18">
-        <v>0.00029311741874557063</v>
+        <v>0.00033808691214948076</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -787,16 +791,16 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>39235.920322478458</v>
+        <v>9454.3334362722962</v>
       </c>
       <c r="B19">
-        <v>0.017244466192137212</v>
+        <v>0.019708362652154834</v>
       </c>
       <c r="C19">
-        <v>0.0097995141814437581</v>
+        <v>0.010386532948630173</v>
       </c>
       <c r="D19">
-        <v>0.00025321318477288326</v>
+        <v>0.00033885913964221977</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -804,16 +808,16 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>41007.513640199235</v>
+        <v>4465.6424487466556</v>
       </c>
       <c r="B20">
-        <v>0.019574648789832994</v>
+        <v>0.023475782270702159</v>
       </c>
       <c r="C20">
-        <v>0.0024375556289429759</v>
+        <v>0.015782031563959666</v>
       </c>
       <c r="D20">
-        <v>0.00012278237799463594</v>
+        <v>0.00015173927423500991</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -821,16 +825,16 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>11985.344552862931</v>
+        <v>33692.078738335869</v>
       </c>
       <c r="B21">
-        <v>0.0081203245158196196</v>
+        <v>0.0083614766839328891</v>
       </c>
       <c r="C21">
-        <v>0.017582186615793919</v>
+        <v>0.0032500567109511897</v>
       </c>
       <c r="D21">
-        <v>0.00034827140778980213</v>
+        <v>0.00032335899773089317</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -838,16 +842,16 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>9551.546297627061</v>
+        <v>9440.2075255632826</v>
       </c>
       <c r="B22">
-        <v>0.012679947326716821</v>
+        <v>0.0164560158544662</v>
       </c>
       <c r="C22">
-        <v>0.00078400468315083585</v>
+        <v>0.028602466170920562</v>
       </c>
       <c r="D22">
-        <v>0.00023725790315861099</v>
+        <v>0.00027025858869352166</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -855,16 +859,16 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>23589.251589787724</v>
+        <v>16536.459851680516</v>
       </c>
       <c r="B23">
-        <v>0.02482669846391471</v>
+        <v>0.027991763874015786</v>
       </c>
       <c r="C23">
-        <v>0.044357411833116235</v>
+        <v>0.016003828358178106</v>
       </c>
       <c r="D23">
-        <v>0.00030546166901421006</v>
+        <v>0.00019801074337854254</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -872,16 +876,16 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>26895.885239420139</v>
+        <v>23035.623859884097</v>
       </c>
       <c r="B24">
-        <v>0.01682769718618897</v>
+        <v>0.02573105745625761</v>
       </c>
       <c r="C24">
-        <v>0.0080402082984888813</v>
+        <v>0.062583888110705657</v>
       </c>
       <c r="D24">
-        <v>0.0003382406986307152</v>
+        <v>0.00014754866555659251</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -889,16 +893,16 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>17648.880539098336</v>
+        <v>10365.306366559422</v>
       </c>
       <c r="B25">
-        <v>0.03312166357770429</v>
+        <v>0.010988951608931661</v>
       </c>
       <c r="C25">
-        <v>0.0040203033941072783</v>
+        <v>0.015995709092910981</v>
       </c>
       <c r="D25">
-        <v>0.00015112485964506234</v>
+        <v>0.00035989681194894001</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -906,16 +910,16 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>9452.2409795648855</v>
+        <v>26970.747195102056</v>
       </c>
       <c r="B26">
-        <v>0.010734063694081733</v>
+        <v>0.011156868564141617</v>
       </c>
       <c r="C26">
-        <v>0.012292240845375077</v>
+        <v>0.025399549103039952</v>
       </c>
       <c r="D26">
-        <v>0.00016315181948435182</v>
+        <v>0.00018395197651166698</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -923,16 +927,16 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>50025.059602455862</v>
+        <v>20297.091819282199</v>
       </c>
       <c r="B27">
-        <v>0.042970378452542146</v>
+        <v>0.0097630525322682724</v>
       </c>
       <c r="C27">
-        <v>0.018166113430987507</v>
+        <v>0.0064077578861500388</v>
       </c>
       <c r="D27">
-        <v>0.00029139446215819908</v>
+        <v>0.0001792619214186856</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -940,16 +944,16 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>4262.0223966222256</v>
+        <v>7250.749356999866</v>
       </c>
       <c r="B28">
-        <v>0.021781937920481727</v>
+        <v>0.0055411723155172864</v>
       </c>
       <c r="C28">
-        <v>0.0043482003006887031</v>
+        <v>0.015171508133611504</v>
       </c>
       <c r="D28">
-        <v>0.00027570963004855506</v>
+        <v>0.00031954652927244714</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -957,16 +961,16 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>5298.211361803993</v>
+        <v>34295.826394638876</v>
       </c>
       <c r="B29">
-        <v>0.026022539521174486</v>
+        <v>0.019037218511656014</v>
       </c>
       <c r="C29">
-        <v>0.073325773960657509</v>
+        <v>0.0066698105290282049</v>
       </c>
       <c r="D29">
-        <v>0.00037912726155654806</v>
+        <v>0.0003803163420251626</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -974,16 +978,16 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>6842.5663787929479</v>
+        <v>5076.8029629254179</v>
       </c>
       <c r="B30">
-        <v>0.053052748813452996</v>
+        <v>0.024637410740215575</v>
       </c>
       <c r="C30">
-        <v>0.013248176037503452</v>
+        <v>0.032870143020197654</v>
       </c>
       <c r="D30">
-        <v>0.0003532380083005211</v>
+        <v>0.00028339042958822318</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -991,16 +995,16 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>7853.3261843076334</v>
+        <v>12907.346012544533</v>
       </c>
       <c r="B31">
-        <v>0.015750213984586092</v>
+        <v>0.026477704828102144</v>
       </c>
       <c r="C31">
-        <v>0.011906132263979199</v>
+        <v>0.0415742336480176</v>
       </c>
       <c r="D31">
-        <v>0.00033649016188533868</v>
+        <v>0.00032857480972076184</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1008,16 +1012,16 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>26018.631384138134</v>
+        <v>10697.379111133523</v>
       </c>
       <c r="B32">
-        <v>0.01883521467611109</v>
+        <v>0.021573814618549209</v>
       </c>
       <c r="C32">
-        <v>0.0027714170968067744</v>
+        <v>0.013974308656680598</v>
       </c>
       <c r="D32">
-        <v>0.00011422458176903047</v>
+        <v>0.00017500099236979135</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1025,16 +1029,16 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>23959.002854689948</v>
+        <v>22171.099382794033</v>
       </c>
       <c r="B33">
-        <v>0.020014851461049667</v>
+        <v>0.010393151187632366</v>
       </c>
       <c r="C33">
-        <v>0.011940677764404677</v>
+        <v>0.028679253726720408</v>
       </c>
       <c r="D33">
-        <v>0.00013119900232563873</v>
+        <v>0.00039945042925008142</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1042,16 +1046,16 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>2903.9257379039846</v>
+        <v>4678.5861357614704</v>
       </c>
       <c r="B34">
-        <v>0.027712696647963914</v>
+        <v>0.024025681597987764</v>
       </c>
       <c r="C34">
-        <v>0.0021381362775047047</v>
+        <v>0.011783021376948111</v>
       </c>
       <c r="D34">
-        <v>0.00014155146571960287</v>
+        <v>0.00028929978353766029</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1059,16 +1063,16 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>47367.75777255003</v>
+        <v>17194.971047694482</v>
       </c>
       <c r="B35">
-        <v>0.029555465759945037</v>
+        <v>0.011029869045983498</v>
       </c>
       <c r="C35">
-        <v>0.020221144866608615</v>
+        <v>0.021301499718002312</v>
       </c>
       <c r="D35">
-        <v>0.00035307541093453922</v>
+        <v>0.0003229106635598357</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1076,16 +1080,16 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>31253.708261535408</v>
+        <v>5260.844782305594</v>
       </c>
       <c r="B36">
-        <v>0.010069107077738761</v>
+        <v>0.011299556271371844</v>
       </c>
       <c r="C36">
-        <v>0.033079543679704428</v>
+        <v>0.038136947713446695</v>
       </c>
       <c r="D36">
-        <v>0.00039587970617645631</v>
+        <v>9.9753672479432741e-05</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1093,16 +1097,16 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>31750.028678733826</v>
+        <v>5581.7229416288592</v>
       </c>
       <c r="B37">
-        <v>0.012710779075212269</v>
+        <v>0.010006578989538318</v>
       </c>
       <c r="C37">
-        <v>0.02590311368184417</v>
+        <v>0.024302388812401363</v>
       </c>
       <c r="D37">
-        <v>0.00032388842505084927</v>
+        <v>0.00035598691125147009</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1110,16 +1114,16 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>3423.0285567078899</v>
+        <v>34449.307803279924</v>
       </c>
       <c r="B38">
-        <v>0.017529012814063161</v>
+        <v>0.011560404569987809</v>
       </c>
       <c r="C38">
-        <v>0.0038825057366693181</v>
+        <v>0.013373001054119872</v>
       </c>
       <c r="D38">
-        <v>0.00016518341325048313</v>
+        <v>0.00034011510622323062</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1127,16 +1131,16 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>39843.647457757601</v>
+        <v>12810.780075701341</v>
       </c>
       <c r="B39">
-        <v>0.0082363040822109618</v>
+        <v>0.012406382747088138</v>
       </c>
       <c r="C39">
-        <v>0.0035238585513075113</v>
+        <v>0.011978459070483692</v>
       </c>
       <c r="D39">
-        <v>0.00033356656032652502</v>
+        <v>0.00015930699534068382</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1144,16 +1148,16 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>47833.001057529495</v>
+        <v>25246.559877944142</v>
       </c>
       <c r="B40">
-        <v>0.021353366708682729</v>
+        <v>0.013253380505139786</v>
       </c>
       <c r="C40">
-        <v>0.034106378599477759</v>
+        <v>0.018024497559884688</v>
       </c>
       <c r="D40">
-        <v>0.00015415824808534634</v>
+        <v>0.00028545652797383573</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1161,16 +1165,16 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>60161.012574626962</v>
+        <v>53441.340583691395</v>
       </c>
       <c r="B41">
-        <v>0.016950944541588762</v>
+        <v>0.016497539933565633</v>
       </c>
       <c r="C41">
-        <v>0.045312564881928911</v>
+        <v>0.016812658561670059</v>
       </c>
       <c r="D41">
-        <v>0.00015792441897407013</v>
+        <v>0.00023393730519599579</v>
       </c>
       <c r="E41">
         <v>0</v>

--- a/Analysis_v1/parameters.xlsx
+++ b/Analysis_v1/parameters.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="7">
   <si>
     <t>V_0</t>
   </si>
@@ -56,7 +56,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="197">
+  <borders count="199">
     <border>
       <left/>
       <right/>
@@ -260,11 +260,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -462,6 +464,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="194" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="195" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="196" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="197" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="198" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,7 +480,7 @@
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="true"/>
     <col min="2" max="2" width="14.7109375" customWidth="true"/>
-    <col min="3" max="3" width="14.7109375" customWidth="true"/>
+    <col min="3" max="3" width="15.7109375" customWidth="true"/>
     <col min="4" max="4" width="15.7109375" customWidth="true"/>
     <col min="5" max="5" width="5.7109375" customWidth="true"/>
     <col min="6" max="6" width="5.7109375" customWidth="true"/>
@@ -484,34 +488,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="195" t="s">
+      <c r="A1" s="197" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="195" t="s">
+      <c r="C1" s="197" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="195" t="s">
+      <c r="D1" s="197" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="195" t="s">
+      <c r="E1" s="197" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>26914.534492201426</v>
+        <v>22813.887929123797</v>
       </c>
       <c r="B2">
-        <v>0.019257332912253084</v>
+        <v>0.023355108296347238</v>
       </c>
       <c r="C2">
-        <v>0.012642021049988478</v>
+        <v>0.064423856063448637</v>
       </c>
       <c r="D2">
-        <v>0.0002433456583570627</v>
+        <v>0.00029960582926388221</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -519,16 +523,16 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>14247.626200159903</v>
+        <v>16946.117322462185</v>
       </c>
       <c r="B3">
-        <v>0.02568478489645289</v>
+        <v>0.018189950600459422</v>
       </c>
       <c r="C3">
-        <v>0.0088434112349309677</v>
+        <v>0.0014718059077718851</v>
       </c>
       <c r="D3">
-        <v>0.00029351574090012174</v>
+        <v>0.0002822345287040929</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -536,16 +540,16 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>27521.569556006772</v>
+        <v>17573.787829202854</v>
       </c>
       <c r="B4">
-        <v>0.027529498866759362</v>
+        <v>0.011565744165971925</v>
       </c>
       <c r="C4">
-        <v>0.01012761373754836</v>
+        <v>0.021520290009910729</v>
       </c>
       <c r="D4">
-        <v>0.00033856862855151349</v>
+        <v>0.00013777653978682227</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -553,16 +557,16 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>32374.947634590644</v>
+        <v>8435.7798461191014</v>
       </c>
       <c r="B5">
-        <v>0.019261023288173598</v>
+        <v>0.0066086269476222249</v>
       </c>
       <c r="C5">
-        <v>0.043867481709353201</v>
+        <v>0.0037708719020547428</v>
       </c>
       <c r="D5">
-        <v>0.00026042159836694415</v>
+        <v>0.00033277633345413346</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -570,16 +574,16 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>24363.840696837637</v>
+        <v>11403.989801455924</v>
       </c>
       <c r="B6">
-        <v>0.02463545377346716</v>
+        <v>0.018990274464322391</v>
       </c>
       <c r="C6">
-        <v>0.029640267569077831</v>
+        <v>0.035824094975069533</v>
       </c>
       <c r="D6">
-        <v>0.00026170549272461484</v>
+        <v>0.00041514940769280667</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -587,16 +591,16 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>31869.997302490028</v>
+        <v>1412.6357579377254</v>
       </c>
       <c r="B7">
-        <v>0.010427867853498543</v>
+        <v>0.012892134736364993</v>
       </c>
       <c r="C7">
-        <v>0.022403319536648932</v>
+        <v>0.066514084485500391</v>
       </c>
       <c r="D7">
-        <v>0.00016166459214976531</v>
+        <v>0.00024195823855779802</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -604,16 +608,16 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>10597.090844134062</v>
+        <v>46338.84815011215</v>
       </c>
       <c r="B8">
-        <v>0.035397157131860126</v>
+        <v>0.026560233643631755</v>
       </c>
       <c r="C8">
-        <v>0.0075695828214830223</v>
+        <v>0.0029680822730717643</v>
       </c>
       <c r="D8">
-        <v>8.4951759981456422e-05</v>
+        <v>0.00040576064680896031</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -621,16 +625,16 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>31592.997896741592</v>
+        <v>27516.322640264625</v>
       </c>
       <c r="B9">
-        <v>0.012992972695839768</v>
+        <v>0.017786937534068022</v>
       </c>
       <c r="C9">
-        <v>0.0086310024881975488</v>
+        <v>0.050348771433215145</v>
       </c>
       <c r="D9">
-        <v>0.0002234990864138902</v>
+        <v>0.00023972872892613774</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -638,16 +642,16 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>55070.719167389536</v>
+        <v>47570.664159111286</v>
       </c>
       <c r="B10">
-        <v>0.015188455813287739</v>
+        <v>0.030456774643647138</v>
       </c>
       <c r="C10">
-        <v>0.0033838096457109211</v>
+        <v>0.00098627756029679228</v>
       </c>
       <c r="D10">
-        <v>0.00023155445704418088</v>
+        <v>0.00037794092938448826</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -655,16 +659,16 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>40392.957916211104</v>
+        <v>7732.3151276648287</v>
       </c>
       <c r="B11">
-        <v>0.02882832661752811</v>
+        <v>0.026807497093783911</v>
       </c>
       <c r="C11">
-        <v>0.046428546688294207</v>
+        <v>0.028588755904154287</v>
       </c>
       <c r="D11">
-        <v>0.0003165505049275971</v>
+        <v>0.00026811531567830932</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -672,16 +676,16 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>4446.5464631946761</v>
+        <v>46004.716377747049</v>
       </c>
       <c r="B12">
-        <v>0.020547609215786508</v>
+        <v>0.022525303830399725</v>
       </c>
       <c r="C12">
-        <v>0.029834045510343882</v>
+        <v>0.034542274142539596</v>
       </c>
       <c r="D12">
-        <v>0.0004006602053174513</v>
+        <v>0.00025761498953651504</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -689,16 +693,16 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>15695.163116364032</v>
+        <v>35090.732598139279</v>
       </c>
       <c r="B13">
-        <v>0.027871177008483052</v>
+        <v>0.012672224809903373</v>
       </c>
       <c r="C13">
-        <v>0.022494558727548655</v>
+        <v>0.021453841415909218</v>
       </c>
       <c r="D13">
-        <v>0.00039344537542875072</v>
+        <v>0.0001999884030315467</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -706,16 +710,16 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>15801.490629115633</v>
+        <v>24115.96635939947</v>
       </c>
       <c r="B14">
-        <v>0.018397900457334145</v>
+        <v>0.037533739093548929</v>
       </c>
       <c r="C14">
-        <v>0.012526159287447866</v>
+        <v>0.043035143273501789</v>
       </c>
       <c r="D14">
-        <v>0.00026891514646005307</v>
+        <v>0.0001620523735072739</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -723,16 +727,16 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>29018.225184906874</v>
+        <v>18544.621924634761</v>
       </c>
       <c r="B15">
-        <v>0.015365243112054821</v>
+        <v>0.015165941983140589</v>
       </c>
       <c r="C15">
-        <v>0.0068659454264784203</v>
+        <v>0.044570305319172165</v>
       </c>
       <c r="D15">
-        <v>0.00020777893210703721</v>
+        <v>0.00022905625047140636</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -740,16 +744,16 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>25002.055488089645</v>
+        <v>11491.017768445312</v>
       </c>
       <c r="B16">
-        <v>0.0072725512286469056</v>
+        <v>0.034729625622197967</v>
       </c>
       <c r="C16">
-        <v>0.025487408742477867</v>
+        <v>0.025653623942206862</v>
       </c>
       <c r="D16">
-        <v>0.00034403742774468581</v>
+        <v>0.00033441496822301218</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -757,16 +761,16 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>34756.263268711147</v>
+        <v>32533.414992624646</v>
       </c>
       <c r="B17">
-        <v>0.025104194021016196</v>
+        <v>0.014041212991990177</v>
       </c>
       <c r="C17">
-        <v>0.06562709256193644</v>
+        <v>0.0057665761810107028</v>
       </c>
       <c r="D17">
-        <v>0.00034285911633455651</v>
+        <v>0.0003489788120352716</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -774,16 +778,16 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>15741.980784157417</v>
+        <v>10354.092806541801</v>
       </c>
       <c r="B18">
-        <v>0.019188810085505062</v>
+        <v>0.017863609089578014</v>
       </c>
       <c r="C18">
-        <v>0.0070293745857168966</v>
+        <v>0.0088525577068719</v>
       </c>
       <c r="D18">
-        <v>0.00033808691214948076</v>
+        <v>0.00032636927160097339</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -791,16 +795,16 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>9454.3334362722962</v>
+        <v>3458.6044306481417</v>
       </c>
       <c r="B19">
-        <v>0.019708362652154834</v>
+        <v>0.0095694710362059128</v>
       </c>
       <c r="C19">
-        <v>0.010386532948630173</v>
+        <v>0.0074812229083879404</v>
       </c>
       <c r="D19">
-        <v>0.00033885913964221977</v>
+        <v>6.044526883251748e-05</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -808,16 +812,16 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>4465.6424487466556</v>
+        <v>33419.693945143008</v>
       </c>
       <c r="B20">
-        <v>0.023475782270702159</v>
+        <v>0.02423841663211514</v>
       </c>
       <c r="C20">
-        <v>0.015782031563959666</v>
+        <v>0.0019542294162346631</v>
       </c>
       <c r="D20">
-        <v>0.00015173927423500991</v>
+        <v>0.00036535226458446582</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -825,16 +829,16 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>33692.078738335869</v>
+        <v>28346.130679485548</v>
       </c>
       <c r="B21">
-        <v>0.0083614766839328891</v>
+        <v>0.01278684073927527</v>
       </c>
       <c r="C21">
-        <v>0.0032500567109511897</v>
+        <v>0.0045559378625876883</v>
       </c>
       <c r="D21">
-        <v>0.00032335899773089317</v>
+        <v>0.00038906689662777179</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -842,16 +846,16 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>9440.2075255632826</v>
+        <v>30544.105514443483</v>
       </c>
       <c r="B22">
-        <v>0.0164560158544662</v>
+        <v>0.0076732526253605604</v>
       </c>
       <c r="C22">
-        <v>0.028602466170920562</v>
+        <v>0.025196871146655041</v>
       </c>
       <c r="D22">
-        <v>0.00027025858869352166</v>
+        <v>0.00034586543205751525</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -859,16 +863,16 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>16536.459851680516</v>
+        <v>26976.278781450404</v>
       </c>
       <c r="B23">
-        <v>0.027991763874015786</v>
+        <v>0.026484947096323964</v>
       </c>
       <c r="C23">
-        <v>0.016003828358178106</v>
+        <v>0.050395433717500118</v>
       </c>
       <c r="D23">
-        <v>0.00019801074337854254</v>
+        <v>0.00010609923971636217</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -876,16 +880,16 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>23035.623859884097</v>
+        <v>17727.26332076683</v>
       </c>
       <c r="B24">
-        <v>0.02573105745625761</v>
+        <v>0.017233736378724353</v>
       </c>
       <c r="C24">
-        <v>0.062583888110705657</v>
+        <v>0.014117747215880206</v>
       </c>
       <c r="D24">
-        <v>0.00014754866555659251</v>
+        <v>0.00024835998034699713</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -893,16 +897,16 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>10365.306366559422</v>
+        <v>16632.561163100101</v>
       </c>
       <c r="B25">
-        <v>0.010988951608931661</v>
+        <v>0.024769189030943412</v>
       </c>
       <c r="C25">
-        <v>0.015995709092910981</v>
+        <v>0.016331900147548532</v>
       </c>
       <c r="D25">
-        <v>0.00035989681194894001</v>
+        <v>0.00032898095985853433</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -910,16 +914,16 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>26970.747195102056</v>
+        <v>36509.898515607885</v>
       </c>
       <c r="B26">
-        <v>0.011156868564141617</v>
+        <v>0.018109596994032702</v>
       </c>
       <c r="C26">
-        <v>0.025399549103039952</v>
+        <v>0.063394287485333461</v>
       </c>
       <c r="D26">
-        <v>0.00018395197651166698</v>
+        <v>0.00033527241227074777</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -927,16 +931,16 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>20297.091819282199</v>
+        <v>13809.101899066234</v>
       </c>
       <c r="B27">
-        <v>0.0097630525322682724</v>
+        <v>0.023913816950172414</v>
       </c>
       <c r="C27">
-        <v>0.0064077578861500388</v>
+        <v>0.051493499991761255</v>
       </c>
       <c r="D27">
-        <v>0.0001792619214186856</v>
+        <v>0.00020227569973585452</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -944,16 +948,16 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>7250.749356999866</v>
+        <v>36400.454277366836</v>
       </c>
       <c r="B28">
-        <v>0.0055411723155172864</v>
+        <v>0.0064060452665723449</v>
       </c>
       <c r="C28">
-        <v>0.015171508133611504</v>
+        <v>0.02820827301236363</v>
       </c>
       <c r="D28">
-        <v>0.00031954652927244714</v>
+        <v>0.00021700653363925071</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -961,16 +965,16 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>34295.826394638876</v>
+        <v>34738.073833283619</v>
       </c>
       <c r="B29">
-        <v>0.019037218511656014</v>
+        <v>0.033821980933314497</v>
       </c>
       <c r="C29">
-        <v>0.0066698105290282049</v>
+        <v>0.065887857681557957</v>
       </c>
       <c r="D29">
-        <v>0.0003803163420251626</v>
+        <v>0.00032126820392096089</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -978,16 +982,16 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>5076.8029629254179</v>
+        <v>39177.166262636878</v>
       </c>
       <c r="B30">
-        <v>0.024637410740215575</v>
+        <v>0.028922957130490142</v>
       </c>
       <c r="C30">
-        <v>0.032870143020197654</v>
+        <v>0.033425299275255775</v>
       </c>
       <c r="D30">
-        <v>0.00028339042958822318</v>
+        <v>0.00027379681924326722</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -995,16 +999,16 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>12907.346012544533</v>
+        <v>21144.952470505676</v>
       </c>
       <c r="B31">
-        <v>0.026477704828102144</v>
+        <v>0.02715424796660652</v>
       </c>
       <c r="C31">
-        <v>0.0415742336480176</v>
+        <v>0.013426861690781999</v>
       </c>
       <c r="D31">
-        <v>0.00032857480972076184</v>
+        <v>0.00030928741223413902</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1012,16 +1016,16 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>10697.379111133523</v>
+        <v>26683.053183313357</v>
       </c>
       <c r="B32">
-        <v>0.021573814618549209</v>
+        <v>0.029369125306318675</v>
       </c>
       <c r="C32">
-        <v>0.013974308656680598</v>
+        <v>0.027468193709563028</v>
       </c>
       <c r="D32">
-        <v>0.00017500099236979135</v>
+        <v>0.00020642889027330661</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1029,16 +1033,16 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>22171.099382794033</v>
+        <v>50565.59601564498</v>
       </c>
       <c r="B33">
-        <v>0.010393151187632366</v>
+        <v>0.01809620544043105</v>
       </c>
       <c r="C33">
-        <v>0.028679253726720408</v>
+        <v>0.0098638927742305798</v>
       </c>
       <c r="D33">
-        <v>0.00039945042925008142</v>
+        <v>0.00018479781167668517</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1046,16 +1050,16 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>4678.5861357614704</v>
+        <v>18698.239827703197</v>
       </c>
       <c r="B34">
-        <v>0.024025681597987764</v>
+        <v>0.023660811421667496</v>
       </c>
       <c r="C34">
-        <v>0.011783021376948111</v>
+        <v>0.011835313086176436</v>
       </c>
       <c r="D34">
-        <v>0.00028929978353766029</v>
+        <v>0.00036156818226452806</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1063,16 +1067,16 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>17194.971047694482</v>
+        <v>3268.6928463138738</v>
       </c>
       <c r="B35">
-        <v>0.011029869045983498</v>
+        <v>0.022633377317973099</v>
       </c>
       <c r="C35">
-        <v>0.021301499718002312</v>
+        <v>0.028394541370383386</v>
       </c>
       <c r="D35">
-        <v>0.0003229106635598357</v>
+        <v>0.00034481941291807197</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1080,16 +1084,16 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>5260.844782305594</v>
+        <v>40377.429027643688</v>
       </c>
       <c r="B36">
-        <v>0.011299556271371844</v>
+        <v>0.021546405125193784</v>
       </c>
       <c r="C36">
-        <v>0.038136947713446695</v>
+        <v>0.021181026900599885</v>
       </c>
       <c r="D36">
-        <v>9.9753672479432741e-05</v>
+        <v>0.00039303049349313372</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1097,16 +1101,16 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>5581.7229416288592</v>
+        <v>26479.598430712227</v>
       </c>
       <c r="B37">
-        <v>0.010006578989538318</v>
+        <v>0.015420670774262766</v>
       </c>
       <c r="C37">
-        <v>0.024302388812401363</v>
+        <v>0.01637037881654925</v>
       </c>
       <c r="D37">
-        <v>0.00035598691125147009</v>
+        <v>0.00015282140055919587</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1114,16 +1118,16 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>34449.307803279924</v>
+        <v>15257.931578176358</v>
       </c>
       <c r="B38">
-        <v>0.011560404569987809</v>
+        <v>0.014722198154381808</v>
       </c>
       <c r="C38">
-        <v>0.013373001054119872</v>
+        <v>0.024543160917821515</v>
       </c>
       <c r="D38">
-        <v>0.00034011510622323062</v>
+        <v>0.00018681474442944354</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1131,16 +1135,16 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>12810.780075701341</v>
+        <v>71677.392755659559</v>
       </c>
       <c r="B39">
-        <v>0.012406382747088138</v>
+        <v>0.019706011612699307</v>
       </c>
       <c r="C39">
-        <v>0.011978459070483692</v>
+        <v>0.032397291219791478</v>
       </c>
       <c r="D39">
-        <v>0.00015930699534068382</v>
+        <v>0.00014788233398631203</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1148,16 +1152,16 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>25246.559877944142</v>
+        <v>10176.151130281574</v>
       </c>
       <c r="B40">
-        <v>0.013253380505139786</v>
+        <v>0.014150990821355899</v>
       </c>
       <c r="C40">
-        <v>0.018024497559884688</v>
+        <v>0.023657315006059249</v>
       </c>
       <c r="D40">
-        <v>0.00028545652797383573</v>
+        <v>0.00027682740703460974</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1165,16 +1169,16 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>53441.340583691395</v>
+        <v>27457.946538099193</v>
       </c>
       <c r="B41">
-        <v>0.016497539933565633</v>
+        <v>0.029059308001509604</v>
       </c>
       <c r="C41">
-        <v>0.016812658561670059</v>
+        <v>0.0222283541951739</v>
       </c>
       <c r="D41">
-        <v>0.00023393730519599579</v>
+        <v>0.00019105489904968603</v>
       </c>
       <c r="E41">
         <v>0</v>

--- a/Analysis_v1/parameters.xlsx
+++ b/Analysis_v1/parameters.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="7">
   <si>
     <t>V_0</t>
   </si>
@@ -56,7 +56,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="199">
+  <borders count="213">
     <border>
       <left/>
       <right/>
@@ -262,11 +262,25 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -466,6 +480,20 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="196" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="197" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="198" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="199" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="200" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="201" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="202" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="203" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="204" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="205" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="206" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="207" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="208" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="209" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="210" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="211" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="212" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,34 +516,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="197" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="197" t="s">
+      <c r="A1" s="211" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="197" t="s">
+      <c r="C1" s="211" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="197" t="s">
+      <c r="D1" s="211" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="197" t="s">
+      <c r="E1" s="211" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>22813.887929123797</v>
+        <v>13285.470795632862</v>
       </c>
       <c r="B2">
-        <v>0.023355108296347238</v>
+        <v>0.021787212762105893</v>
       </c>
       <c r="C2">
-        <v>0.064423856063448637</v>
+        <v>0.029509364837093766</v>
       </c>
       <c r="D2">
-        <v>0.00029960582926388221</v>
+        <v>0.00028987991282411084</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -523,16 +551,16 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>16946.117322462185</v>
+        <v>20249.863979432401</v>
       </c>
       <c r="B3">
-        <v>0.018189950600459422</v>
+        <v>0.0068974681685902844</v>
       </c>
       <c r="C3">
-        <v>0.0014718059077718851</v>
+        <v>0.04168496302371117</v>
       </c>
       <c r="D3">
-        <v>0.0002822345287040929</v>
+        <v>0.00032852967560079242</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -540,16 +568,16 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>17573.787829202854</v>
+        <v>14593.894877875047</v>
       </c>
       <c r="B4">
-        <v>0.011565744165971925</v>
+        <v>0.025727790413186399</v>
       </c>
       <c r="C4">
-        <v>0.021520290009910729</v>
+        <v>0.0023744755407527525</v>
       </c>
       <c r="D4">
-        <v>0.00013777653978682227</v>
+        <v>0.00040048518402093403</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -557,16 +585,16 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>8435.7798461191014</v>
+        <v>35336.124342640782</v>
       </c>
       <c r="B5">
-        <v>0.0066086269476222249</v>
+        <v>0.021302168729579102</v>
       </c>
       <c r="C5">
-        <v>0.0037708719020547428</v>
+        <v>0.0089247048360740853</v>
       </c>
       <c r="D5">
-        <v>0.00033277633345413346</v>
+        <v>0.00026556023506917189</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -574,16 +602,16 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>11403.989801455924</v>
+        <v>61831.841142746205</v>
       </c>
       <c r="B6">
-        <v>0.018990274464322391</v>
+        <v>0.0083442960045854563</v>
       </c>
       <c r="C6">
-        <v>0.035824094975069533</v>
+        <v>0.018312930391474889</v>
       </c>
       <c r="D6">
-        <v>0.00041514940769280667</v>
+        <v>0.00013958218981065303</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -591,16 +619,16 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>1412.6357579377254</v>
+        <v>7548.5360250902013</v>
       </c>
       <c r="B7">
-        <v>0.012892134736364993</v>
+        <v>0.032667776927847593</v>
       </c>
       <c r="C7">
-        <v>0.066514084485500391</v>
+        <v>0.054290693186988592</v>
       </c>
       <c r="D7">
-        <v>0.00024195823855779802</v>
+        <v>0.00011935656471309989</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -608,16 +636,16 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>46338.84815011215</v>
+        <v>10677.959595527351</v>
       </c>
       <c r="B8">
-        <v>0.026560233643631755</v>
+        <v>0.016812276044048238</v>
       </c>
       <c r="C8">
-        <v>0.0029680822730717643</v>
+        <v>0.034974170415870788</v>
       </c>
       <c r="D8">
-        <v>0.00040576064680896031</v>
+        <v>0.00031067344563183696</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -625,16 +653,16 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>27516.322640264625</v>
+        <v>29877.550079243185</v>
       </c>
       <c r="B9">
-        <v>0.017786937534068022</v>
+        <v>0.014206090511137696</v>
       </c>
       <c r="C9">
-        <v>0.050348771433215145</v>
+        <v>0.017995194898210956</v>
       </c>
       <c r="D9">
-        <v>0.00023972872892613774</v>
+        <v>0.00035249678894732847</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -642,16 +670,16 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>47570.664159111286</v>
+        <v>16043.046598399618</v>
       </c>
       <c r="B10">
-        <v>0.030456774643647138</v>
+        <v>0.01058183325782815</v>
       </c>
       <c r="C10">
-        <v>0.00098627756029679228</v>
+        <v>0.013299953635074323</v>
       </c>
       <c r="D10">
-        <v>0.00037794092938448826</v>
+        <v>0.00032572870759668855</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -659,16 +687,16 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>7732.3151276648287</v>
+        <v>56002.401581668229</v>
       </c>
       <c r="B11">
-        <v>0.026807497093783911</v>
+        <v>0.016333982153993242</v>
       </c>
       <c r="C11">
-        <v>0.028588755904154287</v>
+        <v>0.0026527998963212836</v>
       </c>
       <c r="D11">
-        <v>0.00026811531567830932</v>
+        <v>0.000239412320257696</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -676,16 +704,16 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>46004.716377747049</v>
+        <v>55571.780749420643</v>
       </c>
       <c r="B12">
-        <v>0.022525303830399725</v>
+        <v>0.014170949168851112</v>
       </c>
       <c r="C12">
-        <v>0.034542274142539596</v>
+        <v>0.031811663710221975</v>
       </c>
       <c r="D12">
-        <v>0.00025761498953651504</v>
+        <v>0.00039717057737408541</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -693,16 +721,16 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>35090.732598139279</v>
+        <v>27051.709946733514</v>
       </c>
       <c r="B13">
-        <v>0.012672224809903373</v>
+        <v>0.024544465213677605</v>
       </c>
       <c r="C13">
-        <v>0.021453841415909218</v>
+        <v>0.020279123435702557</v>
       </c>
       <c r="D13">
-        <v>0.0001999884030315467</v>
+        <v>0.00028427529053599306</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -710,16 +738,16 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>24115.96635939947</v>
+        <v>39815.24249553011</v>
       </c>
       <c r="B14">
-        <v>0.037533739093548929</v>
+        <v>0.0086671527961657072</v>
       </c>
       <c r="C14">
-        <v>0.043035143273501789</v>
+        <v>0.0081658575667523815</v>
       </c>
       <c r="D14">
-        <v>0.0001620523735072739</v>
+        <v>0.00039957371777182756</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -727,16 +755,16 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>18544.621924634761</v>
+        <v>17062.201519732142</v>
       </c>
       <c r="B15">
-        <v>0.015165941983140589</v>
+        <v>0.015430062850407624</v>
       </c>
       <c r="C15">
-        <v>0.044570305319172165</v>
+        <v>0.016995387153305411</v>
       </c>
       <c r="D15">
-        <v>0.00022905625047140636</v>
+        <v>0.0001316990735163323</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -744,16 +772,16 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>11491.017768445312</v>
+        <v>26513.271207483529</v>
       </c>
       <c r="B16">
-        <v>0.034729625622197967</v>
+        <v>0.0155953400382891</v>
       </c>
       <c r="C16">
-        <v>0.025653623942206862</v>
+        <v>0.0069620739266252011</v>
       </c>
       <c r="D16">
-        <v>0.00033441496822301218</v>
+        <v>0.00019616151424789292</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -761,16 +789,16 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>32533.414992624646</v>
+        <v>60583.724342393944</v>
       </c>
       <c r="B17">
-        <v>0.014041212991990177</v>
+        <v>0.032163736801090914</v>
       </c>
       <c r="C17">
-        <v>0.0057665761810107028</v>
+        <v>0.03246982347707901</v>
       </c>
       <c r="D17">
-        <v>0.0003489788120352716</v>
+        <v>0.00034692583726556573</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -778,16 +806,16 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>10354.092806541801</v>
+        <v>23357.724711384988</v>
       </c>
       <c r="B18">
-        <v>0.017863609089578014</v>
+        <v>0.019534930371348777</v>
       </c>
       <c r="C18">
-        <v>0.0088525577068719</v>
+        <v>0.014661032005311072</v>
       </c>
       <c r="D18">
-        <v>0.00032636927160097339</v>
+        <v>0.00038646629254348534</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -795,16 +823,16 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>3458.6044306481417</v>
+        <v>47713.225564622946</v>
       </c>
       <c r="B19">
-        <v>0.0095694710362059128</v>
+        <v>0.027461805277079587</v>
       </c>
       <c r="C19">
-        <v>0.0074812229083879404</v>
+        <v>0.05078499207210805</v>
       </c>
       <c r="D19">
-        <v>6.044526883251748e-05</v>
+        <v>0.00034889439632353609</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -812,16 +840,16 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>33419.693945143008</v>
+        <v>30812.458634535011</v>
       </c>
       <c r="B20">
-        <v>0.02423841663211514</v>
+        <v>0.023313211322864964</v>
       </c>
       <c r="C20">
-        <v>0.0019542294162346631</v>
+        <v>0.00094479885862429683</v>
       </c>
       <c r="D20">
-        <v>0.00036535226458446582</v>
+        <v>0.00022510388835870142</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -829,16 +857,16 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>28346.130679485548</v>
+        <v>20279.49030104544</v>
       </c>
       <c r="B21">
-        <v>0.01278684073927527</v>
+        <v>0.028335948425104895</v>
       </c>
       <c r="C21">
-        <v>0.0045559378625876883</v>
+        <v>0.037866237955714498</v>
       </c>
       <c r="D21">
-        <v>0.00038906689662777179</v>
+        <v>0.00017423840463436923</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -846,16 +874,16 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>30544.105514443483</v>
+        <v>26837.13766891777</v>
       </c>
       <c r="B22">
-        <v>0.0076732526253605604</v>
+        <v>0.010581177050753345</v>
       </c>
       <c r="C22">
-        <v>0.025196871146655041</v>
+        <v>0.025685281410077025</v>
       </c>
       <c r="D22">
-        <v>0.00034586543205751525</v>
+        <v>0.00036667811162061331</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -863,16 +891,16 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>26976.278781450404</v>
+        <v>42288.517522630922</v>
       </c>
       <c r="B23">
-        <v>0.026484947096323964</v>
+        <v>0.040536657257394297</v>
       </c>
       <c r="C23">
-        <v>0.050395433717500118</v>
+        <v>0.021654747586448177</v>
       </c>
       <c r="D23">
-        <v>0.00010609923971636217</v>
+        <v>0.00034950004702865493</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -880,16 +908,16 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>17727.26332076683</v>
+        <v>9162.2738265040098</v>
       </c>
       <c r="B24">
-        <v>0.017233736378724353</v>
+        <v>0.030745483555953221</v>
       </c>
       <c r="C24">
-        <v>0.014117747215880206</v>
+        <v>0.026865544933012124</v>
       </c>
       <c r="D24">
-        <v>0.00024835998034699713</v>
+        <v>0.00021756245512275429</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -897,16 +925,16 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>16632.561163100101</v>
+        <v>16810.328287546945</v>
       </c>
       <c r="B25">
-        <v>0.024769189030943412</v>
+        <v>0.007948367757657164</v>
       </c>
       <c r="C25">
-        <v>0.016331900147548532</v>
+        <v>0.030967186523028552</v>
       </c>
       <c r="D25">
-        <v>0.00032898095985853433</v>
+        <v>0.000203494719794568</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -914,16 +942,16 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>36509.898515607885</v>
+        <v>65238.266565995662</v>
       </c>
       <c r="B26">
-        <v>0.018109596994032702</v>
+        <v>0.0200467085637362</v>
       </c>
       <c r="C26">
-        <v>0.063394287485333461</v>
+        <v>0.0040645451975446986</v>
       </c>
       <c r="D26">
-        <v>0.00033527241227074777</v>
+        <v>0.00023256197900358485</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -931,16 +959,16 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>13809.101899066234</v>
+        <v>17080.309326215403</v>
       </c>
       <c r="B27">
-        <v>0.023913816950172414</v>
+        <v>0.016700119408609385</v>
       </c>
       <c r="C27">
-        <v>0.051493499991761255</v>
+        <v>0.042220917472455155</v>
       </c>
       <c r="D27">
-        <v>0.00020227569973585452</v>
+        <v>0.00036154563160783852</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -948,16 +976,16 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>36400.454277366836</v>
+        <v>27758.509534627523</v>
       </c>
       <c r="B28">
-        <v>0.0064060452665723449</v>
+        <v>0.023986110358794836</v>
       </c>
       <c r="C28">
-        <v>0.02820827301236363</v>
+        <v>0.00082865413102710915</v>
       </c>
       <c r="D28">
-        <v>0.00021700653363925071</v>
+        <v>0.00035951512058644456</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -965,16 +993,16 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>34738.073833283619</v>
+        <v>43692.629628167124</v>
       </c>
       <c r="B29">
-        <v>0.033821980933314497</v>
+        <v>0.014222626298291614</v>
       </c>
       <c r="C29">
-        <v>0.065887857681557957</v>
+        <v>0.011788947901160125</v>
       </c>
       <c r="D29">
-        <v>0.00032126820392096089</v>
+        <v>0.00029649909935224896</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -982,16 +1010,16 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>39177.166262636878</v>
+        <v>68854.404686636117</v>
       </c>
       <c r="B30">
-        <v>0.028922957130490142</v>
+        <v>0.022739843674199615</v>
       </c>
       <c r="C30">
-        <v>0.033425299275255775</v>
+        <v>0.0073953890751193053</v>
       </c>
       <c r="D30">
-        <v>0.00027379681924326722</v>
+        <v>0.00029677564028724823</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -999,16 +1027,16 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>21144.952470505676</v>
+        <v>27491.225781452857</v>
       </c>
       <c r="B31">
-        <v>0.02715424796660652</v>
+        <v>0.023309750548706251</v>
       </c>
       <c r="C31">
-        <v>0.013426861690781999</v>
+        <v>0.048204862413193994</v>
       </c>
       <c r="D31">
-        <v>0.00030928741223413902</v>
+        <v>0.00022223851141859848</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1016,16 +1044,16 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>26683.053183313357</v>
+        <v>5416.0403994752851</v>
       </c>
       <c r="B32">
-        <v>0.029369125306318675</v>
+        <v>0.023228882268484911</v>
       </c>
       <c r="C32">
-        <v>0.027468193709563028</v>
+        <v>0.0030175278525338776</v>
       </c>
       <c r="D32">
-        <v>0.00020642889027330661</v>
+        <v>0.00032769072364360533</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1033,16 +1061,16 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>50565.59601564498</v>
+        <v>2158.0885577619792</v>
       </c>
       <c r="B33">
-        <v>0.01809620544043105</v>
+        <v>0.019630862044505114</v>
       </c>
       <c r="C33">
-        <v>0.0098638927742305798</v>
+        <v>0.023545651887991917</v>
       </c>
       <c r="D33">
-        <v>0.00018479781167668517</v>
+        <v>0.00035251778109620589</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1050,16 +1078,16 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>18698.239827703197</v>
+        <v>25890.480129148622</v>
       </c>
       <c r="B34">
-        <v>0.023660811421667496</v>
+        <v>0.0071767379582521103</v>
       </c>
       <c r="C34">
-        <v>0.011835313086176436</v>
+        <v>0.026201166510486422</v>
       </c>
       <c r="D34">
-        <v>0.00036156818226452806</v>
+        <v>0.00026481384958527613</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1067,16 +1095,16 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>3268.6928463138738</v>
+        <v>23680.659082567458</v>
       </c>
       <c r="B35">
-        <v>0.022633377317973099</v>
+        <v>0.021163073135414514</v>
       </c>
       <c r="C35">
-        <v>0.028394541370383386</v>
+        <v>0.02690385090483919</v>
       </c>
       <c r="D35">
-        <v>0.00034481941291807197</v>
+        <v>0.00026598253839116087</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1084,16 +1112,16 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>40377.429027643688</v>
+        <v>52858.264614216183</v>
       </c>
       <c r="B36">
-        <v>0.021546405125193784</v>
+        <v>0.018675092059526787</v>
       </c>
       <c r="C36">
-        <v>0.021181026900599885</v>
+        <v>0.040948923607037217</v>
       </c>
       <c r="D36">
-        <v>0.00039303049349313372</v>
+        <v>0.00027085764888883497</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1101,16 +1129,16 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>26479.598430712227</v>
+        <v>32205.805993461789</v>
       </c>
       <c r="B37">
-        <v>0.015420670774262766</v>
+        <v>0.010364467786239909</v>
       </c>
       <c r="C37">
-        <v>0.01637037881654925</v>
+        <v>0.0025262191198986072</v>
       </c>
       <c r="D37">
-        <v>0.00015282140055919587</v>
+        <v>0.00022010602428693916</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1118,16 +1146,16 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>15257.931578176358</v>
+        <v>27931.528870972965</v>
       </c>
       <c r="B38">
-        <v>0.014722198154381808</v>
+        <v>0.019898726137802053</v>
       </c>
       <c r="C38">
-        <v>0.024543160917821515</v>
+        <v>0.036916091149188576</v>
       </c>
       <c r="D38">
-        <v>0.00018681474442944354</v>
+        <v>0.00032184214032449944</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1135,16 +1163,16 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>71677.392755659559</v>
+        <v>21861.871608447989</v>
       </c>
       <c r="B39">
-        <v>0.019706011612699307</v>
+        <v>0.019688319001027434</v>
       </c>
       <c r="C39">
-        <v>0.032397291219791478</v>
+        <v>0.021227562133516668</v>
       </c>
       <c r="D39">
-        <v>0.00014788233398631203</v>
+        <v>0.00038316852732141529</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1152,16 +1180,16 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>10176.151130281574</v>
+        <v>11580.069549126099</v>
       </c>
       <c r="B40">
-        <v>0.014150990821355899</v>
+        <v>0.022047784654707414</v>
       </c>
       <c r="C40">
-        <v>0.023657315006059249</v>
+        <v>0.029154028282415645</v>
       </c>
       <c r="D40">
-        <v>0.00027682740703460974</v>
+        <v>0.00038468351796562301</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1169,16 +1197,16 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>27457.946538099193</v>
+        <v>52864.98384674688</v>
       </c>
       <c r="B41">
-        <v>0.029059308001509604</v>
+        <v>0.029093022939643418</v>
       </c>
       <c r="C41">
-        <v>0.0222283541951739</v>
+        <v>0.0086453665871940918</v>
       </c>
       <c r="D41">
-        <v>0.00019105489904968603</v>
+        <v>0.00033975242771574127</v>
       </c>
       <c r="E41">
         <v>0</v>

--- a/Analysis_v1/parameters.xlsx
+++ b/Analysis_v1/parameters.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="8">
   <si>
     <t>V_0</t>
   </si>
@@ -37,6 +37,9 @@
   <si>
     <t>T_VD</t>
   </si>
+  <si>
+    <t>C_G0</t>
+  </si>
 </sst>
 </file>
 
@@ -56,7 +59,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="213">
+  <borders count="259">
     <border>
       <left/>
       <right/>
@@ -276,11 +279,57 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="259">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -494,6 +543,52 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="210" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="211" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="212" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="213" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="214" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="215" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="216" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="217" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="218" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="219" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="220" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="221" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="222" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="223" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="224" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="225" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="226" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="227" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="228" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="229" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="230" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="231" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="232" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="233" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="234" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="235" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="236" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="237" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="238" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="239" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="240" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="241" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="242" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="243" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="244" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="245" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="246" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="247" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="248" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="249" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="250" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="251" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="252" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="253" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="254" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="255" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="256" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="257" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="258" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,712 +598,1635 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:F81"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="true"/>
     <col min="2" max="2" width="14.7109375" customWidth="true"/>
-    <col min="3" max="3" width="15.7109375" customWidth="true"/>
+    <col min="3" max="3" width="14.7109375" customWidth="true"/>
     <col min="4" max="4" width="15.7109375" customWidth="true"/>
-    <col min="5" max="5" width="5.7109375" customWidth="true"/>
-    <col min="6" max="6" width="5.7109375" customWidth="true"/>
+    <col min="5" max="5" width="2.140625" customWidth="true"/>
+    <col min="6" max="6" width="2.140625" customWidth="true"/>
     <col min="7" max="7" width="5.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="211" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="211" t="s">
+      <c r="A1" s="255" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="255" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="211" t="s">
+      <c r="C1" s="255" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="211" t="s">
+      <c r="D1" s="255" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="211" t="s">
+      <c r="E1" s="255" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="255" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>13285.470795632862</v>
+        <v>25236.36607006954</v>
       </c>
       <c r="B2">
-        <v>0.021787212762105893</v>
+        <v>0.018483430026218349</v>
       </c>
       <c r="C2">
-        <v>0.029509364837093766</v>
+        <v>0.0094754455435334256</v>
       </c>
       <c r="D2">
-        <v>0.00028987991282411084</v>
+        <v>0.00035180087831833352</v>
       </c>
       <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>20249.863979432401</v>
+        <v>7645.3192145277417</v>
       </c>
       <c r="B3">
-        <v>0.0068974681685902844</v>
+        <v>0.016694294712784531</v>
       </c>
       <c r="C3">
-        <v>0.04168496302371117</v>
+        <v>0.0082051871723325762</v>
       </c>
       <c r="D3">
-        <v>0.00032852967560079242</v>
+        <v>0.00035696352533999922</v>
       </c>
       <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>14593.894877875047</v>
+        <v>26673.6075576568</v>
       </c>
       <c r="B4">
-        <v>0.025727790413186399</v>
+        <v>0.022149407745368818</v>
       </c>
       <c r="C4">
-        <v>0.0023744755407527525</v>
+        <v>0.015130593811005847</v>
       </c>
       <c r="D4">
-        <v>0.00040048518402093403</v>
+        <v>0.00038320773322713644</v>
       </c>
       <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>35336.124342640782</v>
+        <v>38525.233574789687</v>
       </c>
       <c r="B5">
-        <v>0.021302168729579102</v>
+        <v>0.015943261087069595</v>
       </c>
       <c r="C5">
-        <v>0.0089247048360740853</v>
+        <v>0.024176732545411021</v>
       </c>
       <c r="D5">
-        <v>0.00026556023506917189</v>
+        <v>0.00028917665645828794</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>61831.841142746205</v>
+        <v>34316.498084278654</v>
       </c>
       <c r="B6">
-        <v>0.0083442960045854563</v>
+        <v>0.017685117352799512</v>
       </c>
       <c r="C6">
-        <v>0.018312930391474889</v>
+        <v>0.010793017764169768</v>
       </c>
       <c r="D6">
-        <v>0.00013958218981065303</v>
+        <v>0.00035833512476436441</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>7548.5360250902013</v>
+        <v>11762.297296416087</v>
       </c>
       <c r="B7">
-        <v>0.032667776927847593</v>
+        <v>0.017272861351941289</v>
       </c>
       <c r="C7">
-        <v>0.054290693186988592</v>
+        <v>0.025484776522411032</v>
       </c>
       <c r="D7">
-        <v>0.00011935656471309989</v>
+        <v>0.00032999381310972001</v>
       </c>
       <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>10677.959595527351</v>
+        <v>13703.926139994612</v>
       </c>
       <c r="B8">
-        <v>0.016812276044048238</v>
+        <v>0.023986589795320493</v>
       </c>
       <c r="C8">
-        <v>0.034974170415870788</v>
+        <v>0.036003169407390109</v>
       </c>
       <c r="D8">
-        <v>0.00031067344563183696</v>
+        <v>0.00010664264108715225</v>
       </c>
       <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>29877.550079243185</v>
+        <v>8535.475117262853</v>
       </c>
       <c r="B9">
-        <v>0.014206090511137696</v>
+        <v>0.024869687631560718</v>
       </c>
       <c r="C9">
-        <v>0.017995194898210956</v>
+        <v>0.0044389516818971403</v>
       </c>
       <c r="D9">
-        <v>0.00035249678894732847</v>
+        <v>0.00017161790257567554</v>
       </c>
       <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>16043.046598399618</v>
+        <v>18835.640815363648</v>
       </c>
       <c r="B10">
-        <v>0.01058183325782815</v>
+        <v>0.044384283297941751</v>
       </c>
       <c r="C10">
-        <v>0.013299953635074323</v>
+        <v>0.031119506967997819</v>
       </c>
       <c r="D10">
-        <v>0.00032572870759668855</v>
+        <v>0.00020537934826199308</v>
       </c>
       <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>56002.401581668229</v>
+        <v>14165.411487752028</v>
       </c>
       <c r="B11">
-        <v>0.016333982153993242</v>
+        <v>0.036264999736458789</v>
       </c>
       <c r="C11">
-        <v>0.0026527998963212836</v>
+        <v>0.026769316921442285</v>
       </c>
       <c r="D11">
-        <v>0.000239412320257696</v>
+        <v>0.0002098372455976258</v>
       </c>
       <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>55571.780749420643</v>
+        <v>12355.314956706625</v>
       </c>
       <c r="B12">
-        <v>0.014170949168851112</v>
+        <v>0.017304397779930349</v>
       </c>
       <c r="C12">
-        <v>0.031811663710221975</v>
+        <v>0.018931657586025236</v>
       </c>
       <c r="D12">
-        <v>0.00039717057737408541</v>
+        <v>0.00018203768668226093</v>
       </c>
       <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>27051.709946733514</v>
+        <v>47448.182568144708</v>
       </c>
       <c r="B13">
-        <v>0.024544465213677605</v>
+        <v>0.013157589856146229</v>
       </c>
       <c r="C13">
-        <v>0.020279123435702557</v>
+        <v>0.049245338182109022</v>
       </c>
       <c r="D13">
-        <v>0.00028427529053599306</v>
+        <v>0.00020596129941493659</v>
       </c>
       <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>39815.24249553011</v>
+        <v>16977.490010121521</v>
       </c>
       <c r="B14">
-        <v>0.0086671527961657072</v>
+        <v>0.034391715037069101</v>
       </c>
       <c r="C14">
-        <v>0.0081658575667523815</v>
+        <v>0.0041418597473328661</v>
       </c>
       <c r="D14">
-        <v>0.00039957371777182756</v>
+        <v>0.00021900203222244164</v>
       </c>
       <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>17062.201519732142</v>
+        <v>16195.287117110596</v>
       </c>
       <c r="B15">
-        <v>0.015430062850407624</v>
+        <v>0.015771779345516705</v>
       </c>
       <c r="C15">
-        <v>0.016995387153305411</v>
+        <v>0.024377833127297049</v>
       </c>
       <c r="D15">
-        <v>0.0001316990735163323</v>
+        <v>0.00039881130226726103</v>
       </c>
       <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>26513.271207483529</v>
+        <v>24780.561096381978</v>
       </c>
       <c r="B16">
-        <v>0.0155953400382891</v>
+        <v>0.02204107497220471</v>
       </c>
       <c r="C16">
-        <v>0.0069620739266252011</v>
+        <v>0.0094573475325376872</v>
       </c>
       <c r="D16">
-        <v>0.00019616151424789292</v>
+        <v>0.00023979030508575314</v>
       </c>
       <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>60583.724342393944</v>
+        <v>3654.3191618474484</v>
       </c>
       <c r="B17">
-        <v>0.032163736801090914</v>
+        <v>0.034375131558926755</v>
       </c>
       <c r="C17">
-        <v>0.03246982347707901</v>
+        <v>0.0015673816225209199</v>
       </c>
       <c r="D17">
-        <v>0.00034692583726556573</v>
+        <v>0.00022563700290028997</v>
       </c>
       <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>23357.724711384988</v>
+        <v>9422.7387250135707</v>
       </c>
       <c r="B18">
-        <v>0.019534930371348777</v>
+        <v>0.0096716189324627874</v>
       </c>
       <c r="C18">
-        <v>0.014661032005311072</v>
+        <v>0.023489301440238718</v>
       </c>
       <c r="D18">
-        <v>0.00038646629254348534</v>
+        <v>0.00025527965689594939</v>
       </c>
       <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>47713.225564622946</v>
+        <v>30985.25396823349</v>
       </c>
       <c r="B19">
-        <v>0.027461805277079587</v>
+        <v>0.0149644634854096</v>
       </c>
       <c r="C19">
-        <v>0.05078499207210805</v>
+        <v>0.03894554323272198</v>
       </c>
       <c r="D19">
-        <v>0.00034889439632353609</v>
+        <v>0.00022709468125645072</v>
       </c>
       <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>30812.458634535011</v>
+        <v>24020.191626860113</v>
       </c>
       <c r="B20">
-        <v>0.023313211322864964</v>
+        <v>0.019129736411162904</v>
       </c>
       <c r="C20">
-        <v>0.00094479885862429683</v>
+        <v>0.0224548552440232</v>
       </c>
       <c r="D20">
-        <v>0.00022510388835870142</v>
+        <v>0.00034234069075137949</v>
       </c>
       <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20279.49030104544</v>
+        <v>9222.2886890994669</v>
       </c>
       <c r="B21">
-        <v>0.028335948425104895</v>
+        <v>0.02268738178953943</v>
       </c>
       <c r="C21">
-        <v>0.037866237955714498</v>
+        <v>0.03875082958836476</v>
       </c>
       <c r="D21">
-        <v>0.00017423840463436923</v>
+        <v>0.00024338317558685561</v>
       </c>
       <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>26837.13766891777</v>
+        <v>38489.910744418623</v>
       </c>
       <c r="B22">
-        <v>0.010581177050753345</v>
+        <v>0.033179158433079475</v>
       </c>
       <c r="C22">
-        <v>0.025685281410077025</v>
+        <v>0.0083590833237525437</v>
       </c>
       <c r="D22">
-        <v>0.00036667811162061331</v>
+        <v>0.00016167791704538946</v>
       </c>
       <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>42288.517522630922</v>
+        <v>17909.151827239886</v>
       </c>
       <c r="B23">
-        <v>0.040536657257394297</v>
+        <v>0.013885588254752477</v>
       </c>
       <c r="C23">
-        <v>0.021654747586448177</v>
+        <v>0.025427583921798586</v>
       </c>
       <c r="D23">
-        <v>0.00034950004702865493</v>
+        <v>0.00030770950611212945</v>
       </c>
       <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>9162.2738265040098</v>
+        <v>22743.419366863527</v>
       </c>
       <c r="B24">
-        <v>0.030745483555953221</v>
+        <v>0.038696587875816646</v>
       </c>
       <c r="C24">
-        <v>0.026865544933012124</v>
+        <v>0.0071679734158600393</v>
       </c>
       <c r="D24">
-        <v>0.00021756245512275429</v>
+        <v>0.0002422283779612595</v>
       </c>
       <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>16810.328287546945</v>
+        <v>22052.065394995545</v>
       </c>
       <c r="B25">
-        <v>0.007948367757657164</v>
+        <v>0.019292428002682382</v>
       </c>
       <c r="C25">
-        <v>0.030967186523028552</v>
+        <v>0.011605705373307766</v>
       </c>
       <c r="D25">
-        <v>0.000203494719794568</v>
+        <v>0.00024425257705755694</v>
       </c>
       <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>65238.266565995662</v>
+        <v>8612.9298842844692</v>
       </c>
       <c r="B26">
-        <v>0.0200467085637362</v>
+        <v>0.028387594136936249</v>
       </c>
       <c r="C26">
-        <v>0.0040645451975446986</v>
+        <v>0.00099970165123037039</v>
       </c>
       <c r="D26">
-        <v>0.00023256197900358485</v>
+        <v>0.00012803058638026415</v>
       </c>
       <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>17080.309326215403</v>
+        <v>4245.0685428369288</v>
       </c>
       <c r="B27">
-        <v>0.016700119408609385</v>
+        <v>0.021432449706535024</v>
       </c>
       <c r="C27">
-        <v>0.042220917472455155</v>
+        <v>0.029544953153314381</v>
       </c>
       <c r="D27">
-        <v>0.00036154563160783852</v>
+        <v>0.00037220605962854308</v>
       </c>
       <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27758.509534627523</v>
+        <v>19488.999544372775</v>
       </c>
       <c r="B28">
-        <v>0.023986110358794836</v>
+        <v>0.016838712024205407</v>
       </c>
       <c r="C28">
-        <v>0.00082865413102710915</v>
+        <v>0.052821267090071178</v>
       </c>
       <c r="D28">
-        <v>0.00035951512058644456</v>
+        <v>0.00026891761618188045</v>
       </c>
       <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>43692.629628167124</v>
+        <v>1894.1622606574674</v>
       </c>
       <c r="B29">
-        <v>0.014222626298291614</v>
+        <v>0.01923642359063623</v>
       </c>
       <c r="C29">
-        <v>0.011788947901160125</v>
+        <v>0.032304322509982872</v>
       </c>
       <c r="D29">
-        <v>0.00029649909935224896</v>
+        <v>0.00013447117754345728</v>
       </c>
       <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>68854.404686636117</v>
+        <v>18347.401805970287</v>
       </c>
       <c r="B30">
-        <v>0.022739843674199615</v>
+        <v>0.026333511023648771</v>
       </c>
       <c r="C30">
-        <v>0.0073953890751193053</v>
+        <v>0.0327831689390898</v>
       </c>
       <c r="D30">
-        <v>0.00029677564028724823</v>
+        <v>0.00038355879503280791</v>
       </c>
       <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>27491.225781452857</v>
+        <v>23290.0873242952</v>
       </c>
       <c r="B31">
-        <v>0.023309750548706251</v>
+        <v>0.034173501805943821</v>
       </c>
       <c r="C31">
-        <v>0.048204862413193994</v>
+        <v>0.021801009374180821</v>
       </c>
       <c r="D31">
-        <v>0.00022223851141859848</v>
+        <v>0.00022092098551596226</v>
       </c>
       <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>5416.0403994752851</v>
+        <v>26825.729509532801</v>
       </c>
       <c r="B32">
-        <v>0.023228882268484911</v>
+        <v>0.03266734665176551</v>
       </c>
       <c r="C32">
-        <v>0.0030175278525338776</v>
+        <v>0.011318258981745917</v>
       </c>
       <c r="D32">
-        <v>0.00032769072364360533</v>
+        <v>0.00030691192504803144</v>
       </c>
       <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>2158.0885577619792</v>
+        <v>2068.2998232093978</v>
       </c>
       <c r="B33">
-        <v>0.019630862044505114</v>
+        <v>0.011313303562910517</v>
       </c>
       <c r="C33">
-        <v>0.023545651887991917</v>
+        <v>0.0098911041733238912</v>
       </c>
       <c r="D33">
-        <v>0.00035251778109620589</v>
+        <v>0.00031853919301492865</v>
       </c>
       <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>25890.480129148622</v>
+        <v>30269.182817018402</v>
       </c>
       <c r="B34">
-        <v>0.0071767379582521103</v>
+        <v>0.010797035087630651</v>
       </c>
       <c r="C34">
-        <v>0.026201166510486422</v>
+        <v>0.011481822159437917</v>
       </c>
       <c r="D34">
-        <v>0.00026481384958527613</v>
+        <v>0.00019359207583256172</v>
       </c>
       <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>23680.659082567458</v>
+        <v>7970.6160701165218</v>
       </c>
       <c r="B35">
-        <v>0.021163073135414514</v>
+        <v>0.032848094858851248</v>
       </c>
       <c r="C35">
-        <v>0.02690385090483919</v>
+        <v>0.05546150543776647</v>
       </c>
       <c r="D35">
-        <v>0.00026598253839116087</v>
+        <v>0.00040172998838148194</v>
       </c>
       <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>52858.264614216183</v>
+        <v>24803.805898276121</v>
       </c>
       <c r="B36">
-        <v>0.018675092059526787</v>
+        <v>0.024572711709531719</v>
       </c>
       <c r="C36">
-        <v>0.040948923607037217</v>
+        <v>0.0093472889465872813</v>
       </c>
       <c r="D36">
-        <v>0.00027085764888883497</v>
+        <v>0.00031933143692994151</v>
       </c>
       <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>32205.805993461789</v>
+        <v>25445.828985477958</v>
       </c>
       <c r="B37">
-        <v>0.010364467786239909</v>
+        <v>0.007430971729953979</v>
       </c>
       <c r="C37">
-        <v>0.0025262191198986072</v>
+        <v>0.021592532323545993</v>
       </c>
       <c r="D37">
-        <v>0.00022010602428693916</v>
+        <v>0.00028940047480530715</v>
       </c>
       <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>27931.528870972965</v>
+        <v>33717.435452905236</v>
       </c>
       <c r="B38">
-        <v>0.019898726137802053</v>
+        <v>0.020949041095902211</v>
       </c>
       <c r="C38">
-        <v>0.036916091149188576</v>
+        <v>0.0083612344588902057</v>
       </c>
       <c r="D38">
-        <v>0.00032184214032449944</v>
+        <v>0.00037273317771512851</v>
       </c>
       <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>21861.871608447989</v>
+        <v>3097.1501735822512</v>
       </c>
       <c r="B39">
-        <v>0.019688319001027434</v>
+        <v>0.032901731913119125</v>
       </c>
       <c r="C39">
-        <v>0.021227562133516668</v>
+        <v>0.017271368301181155</v>
       </c>
       <c r="D39">
-        <v>0.00038316852732141529</v>
+        <v>0.00029320862501085382</v>
       </c>
       <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>11580.069549126099</v>
+        <v>39374.940934509643</v>
       </c>
       <c r="B40">
-        <v>0.022047784654707414</v>
+        <v>0.018153868271495198</v>
       </c>
       <c r="C40">
-        <v>0.029154028282415645</v>
+        <v>0.0059356168767690587</v>
       </c>
       <c r="D40">
-        <v>0.00038468351796562301</v>
+        <v>8.0631465557667349e-05</v>
       </c>
       <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>52864.98384674688</v>
+        <v>16382.670958597851</v>
       </c>
       <c r="B41">
-        <v>0.029093022939643418</v>
+        <v>0.015857565461605286</v>
       </c>
       <c r="C41">
-        <v>0.0086453665871940918</v>
+        <v>0.014944868290787101</v>
       </c>
       <c r="D41">
-        <v>0.00033975242771574127</v>
+        <v>0.0002750802818732316</v>
       </c>
       <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>35958.758181910598</v>
+      </c>
+      <c r="B42">
+        <v>0.031333827704655412</v>
+      </c>
+      <c r="C42">
+        <v>0.027079621049272598</v>
+      </c>
+      <c r="D42">
+        <v>0.00027020925411842545</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>31650.147472834426</v>
+      </c>
+      <c r="B43">
+        <v>0.025412221229856449</v>
+      </c>
+      <c r="C43">
+        <v>0.046591787334811098</v>
+      </c>
+      <c r="D43">
+        <v>0.00019456982347930505</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>23899.277160670899</v>
+      </c>
+      <c r="B44">
+        <v>0.024087436327970731</v>
+      </c>
+      <c r="C44">
+        <v>0.017236722978881278</v>
+      </c>
+      <c r="D44">
+        <v>0.00037290298239781646</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>847.50853821463352</v>
+      </c>
+      <c r="B45">
+        <v>0.01153687000387521</v>
+      </c>
+      <c r="C45">
+        <v>0.011614203086472635</v>
+      </c>
+      <c r="D45">
+        <v>0.00030306878606076122</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>30704.230284079884</v>
+      </c>
+      <c r="B46">
+        <v>0.0092331937393612378</v>
+      </c>
+      <c r="C46">
+        <v>0.025942771322054067</v>
+      </c>
+      <c r="D46">
+        <v>8.2968079249314382e-05</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>18912.201946675359</v>
+      </c>
+      <c r="B47">
+        <v>0.031973747019254477</v>
+      </c>
+      <c r="C47">
+        <v>0.0118320253978875</v>
+      </c>
+      <c r="D47">
+        <v>0.00038185918501426608</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>27794.375483175299</v>
+      </c>
+      <c r="B48">
+        <v>0.018974201997164247</v>
+      </c>
+      <c r="C48">
+        <v>0.025464837978537096</v>
+      </c>
+      <c r="D48">
+        <v>0.00026767638944757337</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>32604.815284489607</v>
+      </c>
+      <c r="B49">
+        <v>0.020549010886666285</v>
+      </c>
+      <c r="C49">
+        <v>0.0021860650917591689</v>
+      </c>
+      <c r="D49">
+        <v>0.00011992028472705162</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>35743.709501990328</v>
+      </c>
+      <c r="B50">
+        <v>0.019909249728280124</v>
+      </c>
+      <c r="C50">
+        <v>0.072128400287443051</v>
+      </c>
+      <c r="D50">
+        <v>0.00015193205680731761</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>1827.3761393903951</v>
+      </c>
+      <c r="B51">
+        <v>0.021206945121921599</v>
+      </c>
+      <c r="C51">
+        <v>0.0084287034191967806</v>
+      </c>
+      <c r="D51">
+        <v>0.00041604270594095883</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>34166.671344942253</v>
+      </c>
+      <c r="B52">
+        <v>0.015340633060036132</v>
+      </c>
+      <c r="C52">
+        <v>0.024765591430975523</v>
+      </c>
+      <c r="D52">
+        <v>0.00037196313657797398</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>23689.372559141673</v>
+      </c>
+      <c r="B53">
+        <v>0.014257988289004778</v>
+      </c>
+      <c r="C53">
+        <v>0.013851760227703118</v>
+      </c>
+      <c r="D53">
+        <v>0.00030723238549638964</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>3996.5046157446013</v>
+      </c>
+      <c r="B54">
+        <v>0.033179865453938043</v>
+      </c>
+      <c r="C54">
+        <v>0.030455095084845826</v>
+      </c>
+      <c r="D54">
+        <v>8.8309882818120837e-05</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>11256.706125303561</v>
+      </c>
+      <c r="B55">
+        <v>0.0337090043877743</v>
+      </c>
+      <c r="C55">
+        <v>0.0013899327097000383</v>
+      </c>
+      <c r="D55">
+        <v>0.0002329916992399091</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>6482.2771815996621</v>
+      </c>
+      <c r="B56">
+        <v>0.023321774475969489</v>
+      </c>
+      <c r="C56">
+        <v>0.0029638943060680224</v>
+      </c>
+      <c r="D56">
+        <v>0.00027038727128018275</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>23567.926646233507</v>
+      </c>
+      <c r="B57">
+        <v>0.017663883907483448</v>
+      </c>
+      <c r="C57">
+        <v>0.048321956543483889</v>
+      </c>
+      <c r="D57">
+        <v>0.00014783723819545468</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>22587.359491599487</v>
+      </c>
+      <c r="B58">
+        <v>0.023197143135685123</v>
+      </c>
+      <c r="C58">
+        <v>0.0037984337372793942</v>
+      </c>
+      <c r="D58">
+        <v>0.00029657272163603862</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>3673.0540732534864</v>
+      </c>
+      <c r="B59">
+        <v>0.024976499147459696</v>
+      </c>
+      <c r="C59">
+        <v>0.013260028979602498</v>
+      </c>
+      <c r="D59">
+        <v>0.00023394911911598845</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>62414.137773811439</v>
+      </c>
+      <c r="B60">
+        <v>0.032907682160938992</v>
+      </c>
+      <c r="C60">
+        <v>0.021109043852280643</v>
+      </c>
+      <c r="D60">
+        <v>0.00026705969594969153</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>11236.097964008539</v>
+      </c>
+      <c r="B61">
+        <v>0.0095628262034033705</v>
+      </c>
+      <c r="C61">
+        <v>0.0099588790784810796</v>
+      </c>
+      <c r="D61">
+        <v>0.00029822556960604094</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>13733.761847993555</v>
+      </c>
+      <c r="B62">
+        <v>0.021758848030711115</v>
+      </c>
+      <c r="C62">
+        <v>0.021836541382319101</v>
+      </c>
+      <c r="D62">
+        <v>0.00013257054825468895</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>13162.09560054075</v>
+      </c>
+      <c r="B63">
+        <v>0.019162650798124459</v>
+      </c>
+      <c r="C63">
+        <v>0.034348709575678663</v>
+      </c>
+      <c r="D63">
+        <v>0.00011935864484040085</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>2436.9396670840106</v>
+      </c>
+      <c r="B64">
+        <v>0.023657666546214186</v>
+      </c>
+      <c r="C64">
+        <v>0.020923810419478078</v>
+      </c>
+      <c r="D64">
+        <v>0.00022671594210340711</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>22049.360403688352</v>
+      </c>
+      <c r="B65">
+        <v>0.022232926980299057</v>
+      </c>
+      <c r="C65">
+        <v>0.049089077843996173</v>
+      </c>
+      <c r="D65">
+        <v>0.00028464796417204495</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>11428.834789768543</v>
+      </c>
+      <c r="B66">
+        <v>0.01409922770767982</v>
+      </c>
+      <c r="C66">
+        <v>0.0061260895630612863</v>
+      </c>
+      <c r="D66">
+        <v>0.00029437543906615809</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>17326.387032326857</v>
+      </c>
+      <c r="B67">
+        <v>0.01023240332729378</v>
+      </c>
+      <c r="C67">
+        <v>0.016577050552440999</v>
+      </c>
+      <c r="D67">
+        <v>0.00020813706571702498</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>49950.34982174723</v>
+      </c>
+      <c r="B68">
+        <v>0.0056832395832121987</v>
+      </c>
+      <c r="C68">
+        <v>0.011250247276080221</v>
+      </c>
+      <c r="D68">
+        <v>0.00038600223458028931</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>45774.436996904507</v>
+      </c>
+      <c r="B69">
+        <v>0.0083499576183836011</v>
+      </c>
+      <c r="C69">
+        <v>0.024330842131512764</v>
+      </c>
+      <c r="D69">
+        <v>0.00036049019039876141</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>5965.0785132859473</v>
+      </c>
+      <c r="B70">
+        <v>0.016625903881408468</v>
+      </c>
+      <c r="C70">
+        <v>0.0017366598354661127</v>
+      </c>
+      <c r="D70">
+        <v>0.00026556117461431746</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>24741.492107652288</v>
+      </c>
+      <c r="B71">
+        <v>0.028211130602177704</v>
+      </c>
+      <c r="C71">
+        <v>0.0028373333490900546</v>
+      </c>
+      <c r="D71">
+        <v>0.00040974673883861041</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>15434.080317302274</v>
+      </c>
+      <c r="B72">
+        <v>0.016941867038057022</v>
+      </c>
+      <c r="C72">
+        <v>0.012891500617298674</v>
+      </c>
+      <c r="D72">
+        <v>0.00029832771508696971</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>30758.029561443702</v>
+      </c>
+      <c r="B73">
+        <v>0.023718135660381182</v>
+      </c>
+      <c r="C73">
+        <v>0.0042183104367378987</v>
+      </c>
+      <c r="D73">
+        <v>0.00020574743908498831</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>21871.573308853141</v>
+      </c>
+      <c r="B74">
+        <v>0.044762248015095617</v>
+      </c>
+      <c r="C74">
+        <v>0.0070144077228490084</v>
+      </c>
+      <c r="D74">
+        <v>0.00035636137190254779</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>11617.109227170025</v>
+      </c>
+      <c r="B75">
+        <v>0.02444118237846243</v>
+      </c>
+      <c r="C75">
+        <v>0.014771330160001938</v>
+      </c>
+      <c r="D75">
+        <v>0.0002672562915877868</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>20640.470480390642</v>
+      </c>
+      <c r="B76">
+        <v>0.021777035710945067</v>
+      </c>
+      <c r="C76">
+        <v>0.0018705317816161693</v>
+      </c>
+      <c r="D76">
+        <v>0.0002109067808282062</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>39464.981143156081</v>
+      </c>
+      <c r="B77">
+        <v>0.014276595170129832</v>
+      </c>
+      <c r="C77">
+        <v>0.029975081534608219</v>
+      </c>
+      <c r="D77">
+        <v>0.00040013780875356955</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>31027.007959014434</v>
+      </c>
+      <c r="B78">
+        <v>0.02697366622297636</v>
+      </c>
+      <c r="C78">
+        <v>0.026408120547114777</v>
+      </c>
+      <c r="D78">
+        <v>0.00017012478038226796</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>9177.2669320536334</v>
+      </c>
+      <c r="B79">
+        <v>0.032613491280777035</v>
+      </c>
+      <c r="C79">
+        <v>0.007169516584674844</v>
+      </c>
+      <c r="D79">
+        <v>0.00028241601664175299</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>7475.8497629861713</v>
+      </c>
+      <c r="B80">
+        <v>0.031224926571611043</v>
+      </c>
+      <c r="C80">
+        <v>0.0027757049158690494</v>
+      </c>
+      <c r="D80">
+        <v>0.0004060028767264044</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>15850.643917179204</v>
+      </c>
+      <c r="B81">
+        <v>0.02315950683679676</v>
+      </c>
+      <c r="C81">
+        <v>0.016173705332095299</v>
+      </c>
+      <c r="D81">
+        <v>0.00031524568745868088</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
         <v>0</v>
       </c>
     </row>

--- a/Analysis_v1/parameters.xlsx
+++ b/Analysis_v1/parameters.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="8">
   <si>
     <t>V_0</t>
   </si>
@@ -59,7 +59,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="259">
+  <borders count="261">
     <border>
       <left/>
       <right/>
@@ -325,11 +325,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="259">
+  <cellXfs count="261">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -589,6 +591,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="256" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="257" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="258" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="259" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="260" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -598,50 +602,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F41"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="true"/>
     <col min="2" max="2" width="14.7109375" customWidth="true"/>
-    <col min="3" max="3" width="14.7109375" customWidth="true"/>
+    <col min="3" max="3" width="15.7109375" customWidth="true"/>
     <col min="4" max="4" width="15.7109375" customWidth="true"/>
-    <col min="5" max="5" width="2.140625" customWidth="true"/>
-    <col min="6" max="6" width="2.140625" customWidth="true"/>
+    <col min="5" max="5" width="5.5703125" customWidth="true"/>
+    <col min="6" max="6" width="5.7109375" customWidth="true"/>
     <col min="7" max="7" width="5.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="255" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="255" t="s">
+      <c r="A1" s="259" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="259" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="255" t="s">
+      <c r="C1" s="259" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="255" t="s">
+      <c r="D1" s="259" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="255" t="s">
+      <c r="E1" s="259" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="255" t="s">
+      <c r="F1" s="259" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>25236.36607006954</v>
+        <v>25738.203556313041</v>
       </c>
       <c r="B2">
-        <v>0.018483430026218349</v>
+        <v>0.045202208745922623</v>
       </c>
       <c r="C2">
-        <v>0.0094754455435334256</v>
+        <v>0.035305006974296102</v>
       </c>
       <c r="D2">
-        <v>0.00035180087831833352</v>
+        <v>0.00038304412958225912</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -652,16 +656,16 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>7645.3192145277417</v>
+        <v>19708.477817827807</v>
       </c>
       <c r="B3">
-        <v>0.016694294712784531</v>
+        <v>0.027935932282878908</v>
       </c>
       <c r="C3">
-        <v>0.0082051871723325762</v>
+        <v>0.0018269454238043874</v>
       </c>
       <c r="D3">
-        <v>0.00035696352533999922</v>
+        <v>0.00030455511385756679</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -672,16 +676,16 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>26673.6075576568</v>
+        <v>24132.46442206754</v>
       </c>
       <c r="B4">
-        <v>0.022149407745368818</v>
+        <v>0.016405918626124328</v>
       </c>
       <c r="C4">
-        <v>0.015130593811005847</v>
+        <v>0.03096950188919706</v>
       </c>
       <c r="D4">
-        <v>0.00038320773322713644</v>
+        <v>0.00039032087782415228</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -692,16 +696,16 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>38525.233574789687</v>
+        <v>44809.484246331194</v>
       </c>
       <c r="B5">
-        <v>0.015943261087069595</v>
+        <v>0.0082907030034446907</v>
       </c>
       <c r="C5">
-        <v>0.024176732545411021</v>
+        <v>0.041729380484502518</v>
       </c>
       <c r="D5">
-        <v>0.00028917665645828794</v>
+        <v>0.00015764142044202422</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -712,16 +716,16 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>34316.498084278654</v>
+        <v>16071.884049062011</v>
       </c>
       <c r="B6">
-        <v>0.017685117352799512</v>
+        <v>0.0076242339299751223</v>
       </c>
       <c r="C6">
-        <v>0.010793017764169768</v>
+        <v>0.011462467437583194</v>
       </c>
       <c r="D6">
-        <v>0.00035833512476436441</v>
+        <v>0.00023815802418214655</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -732,16 +736,16 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>11762.297296416087</v>
+        <v>10357.858502683121</v>
       </c>
       <c r="B7">
-        <v>0.017272861351941289</v>
+        <v>0.029363001306497719</v>
       </c>
       <c r="C7">
-        <v>0.025484776522411032</v>
+        <v>0.027185936867566068</v>
       </c>
       <c r="D7">
-        <v>0.00032999381310972001</v>
+        <v>9.9936157364694341e-05</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -752,16 +756,16 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>13703.926139994612</v>
+        <v>17901.177419532512</v>
       </c>
       <c r="B8">
-        <v>0.023986589795320493</v>
+        <v>0.01877751267836722</v>
       </c>
       <c r="C8">
-        <v>0.036003169407390109</v>
+        <v>0.0093929833957935808</v>
       </c>
       <c r="D8">
-        <v>0.00010664264108715225</v>
+        <v>0.00028869067892755423</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -772,16 +776,16 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>8535.475117262853</v>
+        <v>12113.748039171958</v>
       </c>
       <c r="B9">
-        <v>0.024869687631560718</v>
+        <v>0.018116611188119761</v>
       </c>
       <c r="C9">
-        <v>0.0044389516818971403</v>
+        <v>0.025461233149828212</v>
       </c>
       <c r="D9">
-        <v>0.00017161790257567554</v>
+        <v>0.00033722039243019142</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -792,16 +796,16 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>18835.640815363648</v>
+        <v>18721.786635357046</v>
       </c>
       <c r="B10">
-        <v>0.044384283297941751</v>
+        <v>0.021382665361157096</v>
       </c>
       <c r="C10">
-        <v>0.031119506967997819</v>
+        <v>0.003295130291095954</v>
       </c>
       <c r="D10">
-        <v>0.00020537934826199308</v>
+        <v>0.00018642033060885347</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -812,16 +816,16 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>14165.411487752028</v>
+        <v>26313.372570236112</v>
       </c>
       <c r="B11">
-        <v>0.036264999736458789</v>
+        <v>0.032778803576518759</v>
       </c>
       <c r="C11">
-        <v>0.026769316921442285</v>
+        <v>0.056472787863191841</v>
       </c>
       <c r="D11">
-        <v>0.0002098372455976258</v>
+        <v>0.00026091105365044792</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -832,16 +836,16 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>12355.314956706625</v>
+        <v>22325.923056986281</v>
       </c>
       <c r="B12">
-        <v>0.017304397779930349</v>
+        <v>0.018632378974152392</v>
       </c>
       <c r="C12">
-        <v>0.018931657586025236</v>
+        <v>0.024888841227997519</v>
       </c>
       <c r="D12">
-        <v>0.00018203768668226093</v>
+        <v>0.00014734503009916435</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -852,16 +856,16 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>47448.182568144708</v>
+        <v>16427.319377397627</v>
       </c>
       <c r="B13">
-        <v>0.013157589856146229</v>
+        <v>0.023340221207480586</v>
       </c>
       <c r="C13">
-        <v>0.049245338182109022</v>
+        <v>0.015264884254854559</v>
       </c>
       <c r="D13">
-        <v>0.00020596129941493659</v>
+        <v>0.00022738511716815759</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -872,16 +876,16 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>16977.490010121521</v>
+        <v>40964.809130265872</v>
       </c>
       <c r="B14">
-        <v>0.034391715037069101</v>
+        <v>0.0098594056951709051</v>
       </c>
       <c r="C14">
-        <v>0.0041418597473328661</v>
+        <v>0.001495456401447319</v>
       </c>
       <c r="D14">
-        <v>0.00021900203222244164</v>
+        <v>0.00034825754277419721</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -892,16 +896,16 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>16195.287117110596</v>
+        <v>13150.189054650828</v>
       </c>
       <c r="B15">
-        <v>0.015771779345516705</v>
+        <v>0.016954186425534937</v>
       </c>
       <c r="C15">
-        <v>0.024377833127297049</v>
+        <v>0.040293752041685171</v>
       </c>
       <c r="D15">
-        <v>0.00039881130226726103</v>
+        <v>0.00028834907833745547</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -912,16 +916,16 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>24780.561096381978</v>
+        <v>16990.529018490906</v>
       </c>
       <c r="B16">
-        <v>0.02204107497220471</v>
+        <v>0.01165403837851634</v>
       </c>
       <c r="C16">
-        <v>0.0094573475325376872</v>
+        <v>0.024585650213161947</v>
       </c>
       <c r="D16">
-        <v>0.00023979030508575314</v>
+        <v>0.00034537659697510704</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -932,16 +936,16 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>3654.3191618474484</v>
+        <v>21634.253507696016</v>
       </c>
       <c r="B17">
-        <v>0.034375131558926755</v>
+        <v>0.014621142057337387</v>
       </c>
       <c r="C17">
-        <v>0.0015673816225209199</v>
+        <v>0.039428915592761279</v>
       </c>
       <c r="D17">
-        <v>0.00022563700290028997</v>
+        <v>0.00031297129420174104</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -952,16 +956,16 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>9422.7387250135707</v>
+        <v>3351.1005976829147</v>
       </c>
       <c r="B18">
-        <v>0.0096716189324627874</v>
+        <v>0.017992852783840819</v>
       </c>
       <c r="C18">
-        <v>0.023489301440238718</v>
+        <v>0.020186725204994607</v>
       </c>
       <c r="D18">
-        <v>0.00025527965689594939</v>
+        <v>0.00037993835313230835</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -972,16 +976,16 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>30985.25396823349</v>
+        <v>10460.63915443195</v>
       </c>
       <c r="B19">
-        <v>0.0149644634854096</v>
+        <v>0.015296920706631089</v>
       </c>
       <c r="C19">
-        <v>0.03894554323272198</v>
+        <v>0.00056117639246814309</v>
       </c>
       <c r="D19">
-        <v>0.00022709468125645072</v>
+        <v>0.00012206978737148286</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -992,16 +996,16 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>24020.191626860113</v>
+        <v>5847.4463070392449</v>
       </c>
       <c r="B20">
-        <v>0.019129736411162904</v>
+        <v>0.0138113580841808</v>
       </c>
       <c r="C20">
-        <v>0.0224548552440232</v>
+        <v>0.047151518779916725</v>
       </c>
       <c r="D20">
-        <v>0.00034234069075137949</v>
+        <v>0.000184257500267609</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1012,16 +1016,16 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>9222.2886890994669</v>
+        <v>4997.2708612848601</v>
       </c>
       <c r="B21">
-        <v>0.02268738178953943</v>
+        <v>0.024075569450148309</v>
       </c>
       <c r="C21">
-        <v>0.03875082958836476</v>
+        <v>0.01633492000737375</v>
       </c>
       <c r="D21">
-        <v>0.00024338317558685561</v>
+        <v>0.00025836478794717384</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1032,16 +1036,16 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>38489.910744418623</v>
+        <v>42548.275080287785</v>
       </c>
       <c r="B22">
-        <v>0.033179158433079475</v>
+        <v>0.028893630892792396</v>
       </c>
       <c r="C22">
-        <v>0.0083590833237525437</v>
+        <v>0.031303075336311506</v>
       </c>
       <c r="D22">
-        <v>0.00016167791704538946</v>
+        <v>0.00033786973172158895</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1052,16 +1056,16 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>17909.151827239886</v>
+        <v>2029.0033358100245</v>
       </c>
       <c r="B23">
-        <v>0.013885588254752477</v>
+        <v>0.013609370464328148</v>
       </c>
       <c r="C23">
-        <v>0.025427583921798586</v>
+        <v>0.0062811304829422342</v>
       </c>
       <c r="D23">
-        <v>0.00030770950611212945</v>
+        <v>0.00037987951246822618</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1072,16 +1076,16 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>22743.419366863527</v>
+        <v>38152.432452782246</v>
       </c>
       <c r="B24">
-        <v>0.038696587875816646</v>
+        <v>0.032999271207833657</v>
       </c>
       <c r="C24">
-        <v>0.0071679734158600393</v>
+        <v>0.036793184444241733</v>
       </c>
       <c r="D24">
-        <v>0.0002422283779612595</v>
+        <v>8.6872372549227e-05</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1092,16 +1096,16 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>22052.065394995545</v>
+        <v>21210.721765418952</v>
       </c>
       <c r="B25">
-        <v>0.019292428002682382</v>
+        <v>0.027150078684468421</v>
       </c>
       <c r="C25">
-        <v>0.011605705373307766</v>
+        <v>0.045877471204289505</v>
       </c>
       <c r="D25">
-        <v>0.00024425257705755694</v>
+        <v>0.00016777621466630333</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1112,16 +1116,16 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>8612.9298842844692</v>
+        <v>5643.2430057381007</v>
       </c>
       <c r="B26">
-        <v>0.028387594136936249</v>
+        <v>0.021696532367081994</v>
       </c>
       <c r="C26">
-        <v>0.00099970165123037039</v>
+        <v>0.034153064379415114</v>
       </c>
       <c r="D26">
-        <v>0.00012803058638026415</v>
+        <v>0.0002603582218648856</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1132,16 +1136,16 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>4245.0685428369288</v>
+        <v>20535.129702015438</v>
       </c>
       <c r="B27">
-        <v>0.021432449706535024</v>
+        <v>0.039105959183951669</v>
       </c>
       <c r="C27">
-        <v>0.029544953153314381</v>
+        <v>0.032807986886276334</v>
       </c>
       <c r="D27">
-        <v>0.00037220605962854308</v>
+        <v>0.00034421022957832029</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1152,16 +1156,16 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>19488.999544372775</v>
+        <v>25067.499349563594</v>
       </c>
       <c r="B28">
-        <v>0.016838712024205407</v>
+        <v>0.022377232051970855</v>
       </c>
       <c r="C28">
-        <v>0.052821267090071178</v>
+        <v>0.016115522327921222</v>
       </c>
       <c r="D28">
-        <v>0.00026891761618188045</v>
+        <v>0.00028530869122425992</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1172,16 +1176,16 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>1894.1622606574674</v>
+        <v>4622.1798207446718</v>
       </c>
       <c r="B29">
-        <v>0.01923642359063623</v>
+        <v>0.013870474194480805</v>
       </c>
       <c r="C29">
-        <v>0.032304322509982872</v>
+        <v>0.029567260421498633</v>
       </c>
       <c r="D29">
-        <v>0.00013447117754345728</v>
+        <v>0.00034161451560338438</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1192,16 +1196,16 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>18347.401805970287</v>
+        <v>57540.59510547798</v>
       </c>
       <c r="B30">
-        <v>0.026333511023648771</v>
+        <v>0.031135586993779277</v>
       </c>
       <c r="C30">
-        <v>0.0327831689390898</v>
+        <v>0.022837609761914037</v>
       </c>
       <c r="D30">
-        <v>0.00038355879503280791</v>
+        <v>0.0001818397196443981</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1212,16 +1216,16 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>23290.0873242952</v>
+        <v>27484.470559076042</v>
       </c>
       <c r="B31">
-        <v>0.034173501805943821</v>
+        <v>0.03132171152427398</v>
       </c>
       <c r="C31">
-        <v>0.021801009374180821</v>
+        <v>0.023712496364655822</v>
       </c>
       <c r="D31">
-        <v>0.00022092098551596226</v>
+        <v>0.00032119377135147271</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1232,16 +1236,16 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>26825.729509532801</v>
+        <v>19372.249664480325</v>
       </c>
       <c r="B32">
-        <v>0.03266734665176551</v>
+        <v>0.016393446498098121</v>
       </c>
       <c r="C32">
-        <v>0.011318258981745917</v>
+        <v>0.013746077155398061</v>
       </c>
       <c r="D32">
-        <v>0.00030691192504803144</v>
+        <v>0.00030806443065093585</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1252,16 +1256,16 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>2068.2998232093978</v>
+        <v>40122.086905278746</v>
       </c>
       <c r="B33">
-        <v>0.011313303562910517</v>
+        <v>0.016732976537172463</v>
       </c>
       <c r="C33">
-        <v>0.0098911041733238912</v>
+        <v>0.029696172298700335</v>
       </c>
       <c r="D33">
-        <v>0.00031853919301492865</v>
+        <v>5.3904700383898194e-05</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1272,16 +1276,16 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>30269.182817018402</v>
+        <v>11694.56919729013</v>
       </c>
       <c r="B34">
-        <v>0.010797035087630651</v>
+        <v>0.030394474657373969</v>
       </c>
       <c r="C34">
-        <v>0.011481822159437917</v>
+        <v>0.0066593470392158367</v>
       </c>
       <c r="D34">
-        <v>0.00019359207583256172</v>
+        <v>0.00033797971874926949</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1292,16 +1296,16 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>7970.6160701165218</v>
+        <v>37054.426836595805</v>
       </c>
       <c r="B35">
-        <v>0.032848094858851248</v>
+        <v>0.020663119130005451</v>
       </c>
       <c r="C35">
-        <v>0.05546150543776647</v>
+        <v>0.00029472561960404778</v>
       </c>
       <c r="D35">
-        <v>0.00040172998838148194</v>
+        <v>0.00041342840962674195</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1312,16 +1316,16 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>24803.805898276121</v>
+        <v>14253.827205281275</v>
       </c>
       <c r="B36">
-        <v>0.024572711709531719</v>
+        <v>0.0080088813546356635</v>
       </c>
       <c r="C36">
-        <v>0.0093472889465872813</v>
+        <v>0.022682543534338857</v>
       </c>
       <c r="D36">
-        <v>0.00031933143692994151</v>
+        <v>0.00016329509954619541</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1332,16 +1336,16 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>25445.828985477958</v>
+        <v>48899.434885881397</v>
       </c>
       <c r="B37">
-        <v>0.007430971729953979</v>
+        <v>0.028163441687836348</v>
       </c>
       <c r="C37">
-        <v>0.021592532323545993</v>
+        <v>0.021994056065997771</v>
       </c>
       <c r="D37">
-        <v>0.00028940047480530715</v>
+        <v>0.00024361180521102459</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1352,16 +1356,16 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>33717.435452905236</v>
+        <v>10962.151558384136</v>
       </c>
       <c r="B38">
-        <v>0.020949041095902211</v>
+        <v>0.019120917485299448</v>
       </c>
       <c r="C38">
-        <v>0.0083612344588902057</v>
+        <v>0.022185678785678571</v>
       </c>
       <c r="D38">
-        <v>0.00037273317771512851</v>
+        <v>0.0001902307549286983</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1372,16 +1376,16 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>3097.1501735822512</v>
+        <v>51793.064957482304</v>
       </c>
       <c r="B39">
-        <v>0.032901731913119125</v>
+        <v>0.015547391070439412</v>
       </c>
       <c r="C39">
-        <v>0.017271368301181155</v>
+        <v>0.029164144609519937</v>
       </c>
       <c r="D39">
-        <v>0.00029320862501085382</v>
+        <v>0.00033148373718955597</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1392,16 +1396,16 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39374.940934509643</v>
+        <v>21354.519383296374</v>
       </c>
       <c r="B40">
-        <v>0.018153868271495198</v>
+        <v>0.016893529468612119</v>
       </c>
       <c r="C40">
-        <v>0.0059356168767690587</v>
+        <v>0.048387781063156408</v>
       </c>
       <c r="D40">
-        <v>8.0631465557667349e-05</v>
+        <v>0.00018509372486188609</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1412,821 +1416,21 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>16382.670958597851</v>
+        <v>23572.393586155653</v>
       </c>
       <c r="B41">
-        <v>0.015857565461605286</v>
+        <v>0.017704813722543417</v>
       </c>
       <c r="C41">
-        <v>0.014944868290787101</v>
+        <v>0.051231150129659279</v>
       </c>
       <c r="D41">
-        <v>0.0002750802818732316</v>
+        <v>0.0004115544489674805</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42">
-        <v>35958.758181910598</v>
-      </c>
-      <c r="B42">
-        <v>0.031333827704655412</v>
-      </c>
-      <c r="C42">
-        <v>0.027079621049272598</v>
-      </c>
-      <c r="D42">
-        <v>0.00027020925411842545</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43">
-        <v>31650.147472834426</v>
-      </c>
-      <c r="B43">
-        <v>0.025412221229856449</v>
-      </c>
-      <c r="C43">
-        <v>0.046591787334811098</v>
-      </c>
-      <c r="D43">
-        <v>0.00019456982347930505</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>23899.277160670899</v>
-      </c>
-      <c r="B44">
-        <v>0.024087436327970731</v>
-      </c>
-      <c r="C44">
-        <v>0.017236722978881278</v>
-      </c>
-      <c r="D44">
-        <v>0.00037290298239781646</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45">
-        <v>847.50853821463352</v>
-      </c>
-      <c r="B45">
-        <v>0.01153687000387521</v>
-      </c>
-      <c r="C45">
-        <v>0.011614203086472635</v>
-      </c>
-      <c r="D45">
-        <v>0.00030306878606076122</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46">
-        <v>30704.230284079884</v>
-      </c>
-      <c r="B46">
-        <v>0.0092331937393612378</v>
-      </c>
-      <c r="C46">
-        <v>0.025942771322054067</v>
-      </c>
-      <c r="D46">
-        <v>8.2968079249314382e-05</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47">
-        <v>18912.201946675359</v>
-      </c>
-      <c r="B47">
-        <v>0.031973747019254477</v>
-      </c>
-      <c r="C47">
-        <v>0.0118320253978875</v>
-      </c>
-      <c r="D47">
-        <v>0.00038185918501426608</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48">
-        <v>27794.375483175299</v>
-      </c>
-      <c r="B48">
-        <v>0.018974201997164247</v>
-      </c>
-      <c r="C48">
-        <v>0.025464837978537096</v>
-      </c>
-      <c r="D48">
-        <v>0.00026767638944757337</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49">
-        <v>32604.815284489607</v>
-      </c>
-      <c r="B49">
-        <v>0.020549010886666285</v>
-      </c>
-      <c r="C49">
-        <v>0.0021860650917591689</v>
-      </c>
-      <c r="D49">
-        <v>0.00011992028472705162</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50">
-        <v>35743.709501990328</v>
-      </c>
-      <c r="B50">
-        <v>0.019909249728280124</v>
-      </c>
-      <c r="C50">
-        <v>0.072128400287443051</v>
-      </c>
-      <c r="D50">
-        <v>0.00015193205680731761</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51">
-        <v>1827.3761393903951</v>
-      </c>
-      <c r="B51">
-        <v>0.021206945121921599</v>
-      </c>
-      <c r="C51">
-        <v>0.0084287034191967806</v>
-      </c>
-      <c r="D51">
-        <v>0.00041604270594095883</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52">
-        <v>34166.671344942253</v>
-      </c>
-      <c r="B52">
-        <v>0.015340633060036132</v>
-      </c>
-      <c r="C52">
-        <v>0.024765591430975523</v>
-      </c>
-      <c r="D52">
-        <v>0.00037196313657797398</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53">
-        <v>23689.372559141673</v>
-      </c>
-      <c r="B53">
-        <v>0.014257988289004778</v>
-      </c>
-      <c r="C53">
-        <v>0.013851760227703118</v>
-      </c>
-      <c r="D53">
-        <v>0.00030723238549638964</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54">
-        <v>3996.5046157446013</v>
-      </c>
-      <c r="B54">
-        <v>0.033179865453938043</v>
-      </c>
-      <c r="C54">
-        <v>0.030455095084845826</v>
-      </c>
-      <c r="D54">
-        <v>8.8309882818120837e-05</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55">
-        <v>11256.706125303561</v>
-      </c>
-      <c r="B55">
-        <v>0.0337090043877743</v>
-      </c>
-      <c r="C55">
-        <v>0.0013899327097000383</v>
-      </c>
-      <c r="D55">
-        <v>0.0002329916992399091</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56">
-        <v>6482.2771815996621</v>
-      </c>
-      <c r="B56">
-        <v>0.023321774475969489</v>
-      </c>
-      <c r="C56">
-        <v>0.0029638943060680224</v>
-      </c>
-      <c r="D56">
-        <v>0.00027038727128018275</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57">
-        <v>23567.926646233507</v>
-      </c>
-      <c r="B57">
-        <v>0.017663883907483448</v>
-      </c>
-      <c r="C57">
-        <v>0.048321956543483889</v>
-      </c>
-      <c r="D57">
-        <v>0.00014783723819545468</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58">
-        <v>22587.359491599487</v>
-      </c>
-      <c r="B58">
-        <v>0.023197143135685123</v>
-      </c>
-      <c r="C58">
-        <v>0.0037984337372793942</v>
-      </c>
-      <c r="D58">
-        <v>0.00029657272163603862</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59">
-        <v>3673.0540732534864</v>
-      </c>
-      <c r="B59">
-        <v>0.024976499147459696</v>
-      </c>
-      <c r="C59">
-        <v>0.013260028979602498</v>
-      </c>
-      <c r="D59">
-        <v>0.00023394911911598845</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60">
-        <v>62414.137773811439</v>
-      </c>
-      <c r="B60">
-        <v>0.032907682160938992</v>
-      </c>
-      <c r="C60">
-        <v>0.021109043852280643</v>
-      </c>
-      <c r="D60">
-        <v>0.00026705969594969153</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61">
-        <v>11236.097964008539</v>
-      </c>
-      <c r="B61">
-        <v>0.0095628262034033705</v>
-      </c>
-      <c r="C61">
-        <v>0.0099588790784810796</v>
-      </c>
-      <c r="D61">
-        <v>0.00029822556960604094</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62">
-        <v>13733.761847993555</v>
-      </c>
-      <c r="B62">
-        <v>0.021758848030711115</v>
-      </c>
-      <c r="C62">
-        <v>0.021836541382319101</v>
-      </c>
-      <c r="D62">
-        <v>0.00013257054825468895</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63">
-        <v>13162.09560054075</v>
-      </c>
-      <c r="B63">
-        <v>0.019162650798124459</v>
-      </c>
-      <c r="C63">
-        <v>0.034348709575678663</v>
-      </c>
-      <c r="D63">
-        <v>0.00011935864484040085</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64">
-        <v>2436.9396670840106</v>
-      </c>
-      <c r="B64">
-        <v>0.023657666546214186</v>
-      </c>
-      <c r="C64">
-        <v>0.020923810419478078</v>
-      </c>
-      <c r="D64">
-        <v>0.00022671594210340711</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65">
-        <v>22049.360403688352</v>
-      </c>
-      <c r="B65">
-        <v>0.022232926980299057</v>
-      </c>
-      <c r="C65">
-        <v>0.049089077843996173</v>
-      </c>
-      <c r="D65">
-        <v>0.00028464796417204495</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66">
-        <v>11428.834789768543</v>
-      </c>
-      <c r="B66">
-        <v>0.01409922770767982</v>
-      </c>
-      <c r="C66">
-        <v>0.0061260895630612863</v>
-      </c>
-      <c r="D66">
-        <v>0.00029437543906615809</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67">
-        <v>17326.387032326857</v>
-      </c>
-      <c r="B67">
-        <v>0.01023240332729378</v>
-      </c>
-      <c r="C67">
-        <v>0.016577050552440999</v>
-      </c>
-      <c r="D67">
-        <v>0.00020813706571702498</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68">
-        <v>49950.34982174723</v>
-      </c>
-      <c r="B68">
-        <v>0.0056832395832121987</v>
-      </c>
-      <c r="C68">
-        <v>0.011250247276080221</v>
-      </c>
-      <c r="D68">
-        <v>0.00038600223458028931</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69">
-        <v>45774.436996904507</v>
-      </c>
-      <c r="B69">
-        <v>0.0083499576183836011</v>
-      </c>
-      <c r="C69">
-        <v>0.024330842131512764</v>
-      </c>
-      <c r="D69">
-        <v>0.00036049019039876141</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70">
-        <v>5965.0785132859473</v>
-      </c>
-      <c r="B70">
-        <v>0.016625903881408468</v>
-      </c>
-      <c r="C70">
-        <v>0.0017366598354661127</v>
-      </c>
-      <c r="D70">
-        <v>0.00026556117461431746</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71">
-        <v>24741.492107652288</v>
-      </c>
-      <c r="B71">
-        <v>0.028211130602177704</v>
-      </c>
-      <c r="C71">
-        <v>0.0028373333490900546</v>
-      </c>
-      <c r="D71">
-        <v>0.00040974673883861041</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72">
-        <v>15434.080317302274</v>
-      </c>
-      <c r="B72">
-        <v>0.016941867038057022</v>
-      </c>
-      <c r="C72">
-        <v>0.012891500617298674</v>
-      </c>
-      <c r="D72">
-        <v>0.00029832771508696971</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73">
-        <v>30758.029561443702</v>
-      </c>
-      <c r="B73">
-        <v>0.023718135660381182</v>
-      </c>
-      <c r="C73">
-        <v>0.0042183104367378987</v>
-      </c>
-      <c r="D73">
-        <v>0.00020574743908498831</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74">
-        <v>21871.573308853141</v>
-      </c>
-      <c r="B74">
-        <v>0.044762248015095617</v>
-      </c>
-      <c r="C74">
-        <v>0.0070144077228490084</v>
-      </c>
-      <c r="D74">
-        <v>0.00035636137190254779</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75">
-        <v>11617.109227170025</v>
-      </c>
-      <c r="B75">
-        <v>0.02444118237846243</v>
-      </c>
-      <c r="C75">
-        <v>0.014771330160001938</v>
-      </c>
-      <c r="D75">
-        <v>0.0002672562915877868</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76">
-        <v>20640.470480390642</v>
-      </c>
-      <c r="B76">
-        <v>0.021777035710945067</v>
-      </c>
-      <c r="C76">
-        <v>0.0018705317816161693</v>
-      </c>
-      <c r="D76">
-        <v>0.0002109067808282062</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77">
-        <v>39464.981143156081</v>
-      </c>
-      <c r="B77">
-        <v>0.014276595170129832</v>
-      </c>
-      <c r="C77">
-        <v>0.029975081534608219</v>
-      </c>
-      <c r="D77">
-        <v>0.00040013780875356955</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78">
-        <v>31027.007959014434</v>
-      </c>
-      <c r="B78">
-        <v>0.02697366622297636</v>
-      </c>
-      <c r="C78">
-        <v>0.026408120547114777</v>
-      </c>
-      <c r="D78">
-        <v>0.00017012478038226796</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79">
-        <v>9177.2669320536334</v>
-      </c>
-      <c r="B79">
-        <v>0.032613491280777035</v>
-      </c>
-      <c r="C79">
-        <v>0.007169516584674844</v>
-      </c>
-      <c r="D79">
-        <v>0.00028241601664175299</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80">
-        <v>7475.8497629861713</v>
-      </c>
-      <c r="B80">
-        <v>0.031224926571611043</v>
-      </c>
-      <c r="C80">
-        <v>0.0027757049158690494</v>
-      </c>
-      <c r="D80">
-        <v>0.0004060028767264044</v>
-      </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81">
-        <v>15850.643917179204</v>
-      </c>
-      <c r="B81">
-        <v>0.02315950683679676</v>
-      </c>
-      <c r="C81">
-        <v>0.016173705332095299</v>
-      </c>
-      <c r="D81">
-        <v>0.00031524568745868088</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="F81">
         <v>0</v>
       </c>
     </row>
